--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D672DE0-51AD-4A70-BD33-067D41C110D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B89567-1CEF-477A-8C28-14066F0C2D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="212">
   <si>
     <t>Урок 1</t>
   </si>
@@ -1950,7 +1950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1990,6 +1990,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,7 +2093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2174,6 +2180,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3083,8 +3092,8 @@
   </sheetPr>
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D58" sqref="A58:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3994,9 +4003,7 @@
       <c r="X52" s="3"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="F53" s="3"/>
@@ -4016,8 +4023,8 @@
       <c r="X53" s="3"/>
     </row>
     <row r="54" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>2</v>
+      <c r="A54" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>174</v>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B89567-1CEF-477A-8C28-14066F0C2D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEA133-1EA3-4033-9121-FE5587A0ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>Урок 1</t>
   </si>
@@ -386,16 +387,10 @@
 0:46:00</t>
   </si>
   <si>
-    <t>Чтобы вставить изображение к текст</t>
-  </si>
-  <si>
     <t>0:51:00</t>
   </si>
   <si>
     <t>![&lt;текст, который будет выводиться, если изображение невозможно будет подгрузить&gt;](&lt;имя файла, из которого будет загружено изображение&gt;)</t>
-  </si>
-  <si>
-    <t>![&lt;Привет, это тефтелька&gt;](&lt;Teftelka.jpg&gt;)</t>
   </si>
   <si>
     <t>В git обычно добавляются только текстовые файлы. Никаких изображений!</t>
@@ -424,24 +419,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Важно! находится нужно в ветке master!!!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Файл, в котором мы прописываем пути к файлам, которые мы хотим игнорировать в папке git. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Например изображения</t>
     </r>
   </si>
   <si>
@@ -1623,6 +1600,12 @@
     <t>! - логический оператор НЕ и оператор истории</t>
   </si>
   <si>
+    <t>https://sonikelf.ru/15-specialnyx-simvolov-komand-kotoryx-nuzhno-znat-dlya-raboty-bash-linux/</t>
+  </si>
+  <si>
+    <t>Для дальнейшего изучения</t>
+  </si>
+  <si>
     <t>Создание специальных файлов</t>
   </si>
   <si>
@@ -1687,30 +1670,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Второе дерево</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — раздел проиндексированных файлов. Это дерево отслеживает изменения рабочего каталога, которые были добавлены с помощью команды git add, для сохранения в следующем коммите. </t>
-    </r>
-  </si>
-  <si>
     <t>Раздел проиндексированных файлов</t>
   </si>
   <si>
@@ -1788,6 +1747,15 @@
     <t>https://www.atlassian.com/ru/git/tutorials/undoing-changes/git-reset</t>
   </si>
   <si>
+    <t>История коммитов</t>
+  </si>
+  <si>
+    <t>Чтобы вставить изображение в текст</t>
+  </si>
+  <si>
+    <t>![Привет, это тефтелька](Teftelka.jpg)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1798,6 +1766,53 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Второе дерево</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — раздел проиндексированных файлов. Это дерево отслеживает изменения рабочего каталога, которые были добавлены с помощью команды git add (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>они добавляеются во второе дерево только после выполнения git add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), для сохранения в следующем коммите. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Последнее дерево</t>
     </r>
     <r>
@@ -1808,23 +1823,271 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> — история коммитов. Команда git commit добавляет изменения в постоянный снимок, который находится в истории коммитов. Этот снимок также включает состояние раздела проиндексированных файлов на момент выполнения коммита.</t>
-    </r>
-  </si>
-  <si>
-    <t>История коммитов</t>
+      <t xml:space="preserve"> — история коммитов. Команда git commit добавляет изменения в постоянный снимок, который находится в истории коммитов. Этот снимок также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>включает состояние раздела проиндексированных файлов на момент выполнения коммита (второе дерево)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Отличие git reset от git checkout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На первый взгляд, поведение команды git reset схоже с поведением команды git checkout. Но команда </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> работает исключительно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с указателем HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> перемещает </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>указатель HEAD и указатель текущей ветки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>git checkout &lt;hash commit&gt;</t>
+  </si>
+  <si>
+    <t>git reset &lt;hash commit&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Помимо обновления указателей на коммит команда git reset изменяет состояние трех деревьев. Указатели меняются всегда, то есть происходит обновление третьего дерева, дерева коммитов. Аргументы командной строки</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --soft, --mixed и --hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> определяют, каким образом необходимо изменить деревья раздела проиндексированных файлов и рабочего каталога.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git reset (или </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git reset --mixed HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git reset эквивалентно выполнению команды </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git reset --mixed HEAD</t>
+    </r>
+  </si>
+  <si>
+    <t>git reset --hard HEAD</t>
+  </si>
+  <si>
+    <t>Это самый прямой, ОПАСНЫЙ и часто используемый вариант. При использовании аргумента --hard указатели в истории коммитов обновляются на указанный коммит. Затем происходит сброс раздела проиндексированных файлов и рабочего каталога до указанного коммита. Все предыдущие ожидающие изменения в разделе проиндексированных файлов и рабочем каталоге сбрасываются в соответствии с состоянием дерева коммитов. Это значит, что любая работа, находившаяся в состоянии ожидания в разделе проиндексированных файлов и рабочем каталоге, будет потеряна.</t>
+  </si>
+  <si>
+    <t>git reset --mixed HEAD</t>
+  </si>
+  <si>
+    <t>Преимущество, но и проблема: позволяет легко перескочить на любой более ранний коммит с сохранением последней сделанной работы (таким образом убирая целый ряд коммитов из списка git log). Ремарка: также переводить любую работу из дерева 2 (git add) в дерево 1 (unstaged)</t>
+  </si>
+  <si>
+    <t>Проблема: можно легко и навсегда потерять работу, которая не отправлялась (возможно несколько коммитов подряд не отправлялась) в коммит (то есть была какое-то время в дереве 1 (unstaged) или дереве 2 (git add)). Без возможности восстановления обратным reset --hard. Однако работы в дереве 3 спокойно восстанавливаются</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Файл, в котором мы прописываем пути к файлам, которые мы хотим игнорировать в папке git. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Например изображения
+Упрощение: команда </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotnet new gitignore</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1949,8 +2212,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1990,12 +2272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,9 +2367,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2110,10 +2386,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2125,25 +2401,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2176,14 +2452,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2692,15 +2972,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
+      <xdr:colOff>100514</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:rowOff>77423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3437695</xdr:colOff>
+      <xdr:colOff>3310150</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>404091</xdr:rowOff>
+      <xdr:rowOff>378584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2723,8 +3003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3994728" y="44577000"/>
-          <a:ext cx="3322240" cy="311727"/>
+          <a:off x="3977749" y="44534894"/>
+          <a:ext cx="3209636" cy="301161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2779,16 +3059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357910</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1373911</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>374210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2378364</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>332756</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3394365</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>556875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2811,8 +3091,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7735455" y="50534455"/>
+          <a:off x="5251146" y="50173151"/>
           <a:ext cx="2020454" cy="182665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3043646</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1154546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C897276-4708-4BBE-A380-42EDC22028CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22559817" y="16013547"/>
+          <a:ext cx="2974374" cy="1004454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1890059</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3380442</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>657411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994C8D93-B56F-4AE5-A79C-3A4985E1220F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767294" y="50837353"/>
+          <a:ext cx="1490383" cy="537882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1882589</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3309471</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>845831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFF45C-DD0F-478D-A39D-425CCAD59758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5759824" y="51591882"/>
+          <a:ext cx="1426882" cy="711361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>697311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3900713</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1674283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D37242-FD20-41CD-97D6-0B5B72818E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801927" y="51343097"/>
+          <a:ext cx="3710215" cy="2999900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118564</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>612054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1415150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1015465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C62D31-8619-456D-B539-309F6DC99555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="118564" y="53280768"/>
+          <a:ext cx="1296586" cy="403411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114195</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1030408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1563489</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1163090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F1DBB-DF40-4C10-8C41-9B0362989B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114195" y="53699122"/>
+          <a:ext cx="1449294" cy="132682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114193</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1173159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1542143</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1561687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F715DE9-F3EB-4D42-A43C-C3A669B0D7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114193" y="53841873"/>
+          <a:ext cx="1427950" cy="388528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3090,10 +3678,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3203,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -3217,7 +3805,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -3246,13 +3834,13 @@
     </row>
     <row r="7" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="21"/>
       <c r="F7" s="5" t="s">
@@ -3271,7 +3859,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N7" s="9">
         <v>9.0277777777777776E-2</v>
@@ -3279,11 +3867,11 @@
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D8" s="27"/>
       <c r="I8" s="9"/>
@@ -3305,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>22</v>
@@ -3314,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>26</v>
@@ -3322,26 +3910,26 @@
     </row>
     <row r="10" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="D10" s="24"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D11" s="27"/>
       <c r="F11" s="11"/>
@@ -3351,7 +3939,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -3377,7 +3965,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -3487,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N20" s="9">
         <v>2.6041666666666668E-2</v>
@@ -3513,13 +4101,13 @@
         <v>40</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N21" s="9">
         <v>3.0902777777777779E-2</v>
@@ -3536,25 +4124,25 @@
         <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N22" s="9">
         <v>5.347222222222222E-2</v>
@@ -3574,16 +4162,16 @@
         <v>41</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
@@ -3591,60 +4179,60 @@
         <v>56</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N26" s="9">
         <v>9.5138888888888884E-2</v>
@@ -3679,7 +4267,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -3710,13 +4298,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N32" s="9">
         <v>5.8333333333333327E-2</v>
@@ -3724,10 +4312,10 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N33" s="9">
         <v>6.3888888888888884E-2</v>
@@ -3735,39 +4323,39 @@
     </row>
     <row r="34" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N35" s="9">
         <v>6.805555555555555E-2</v>
@@ -3775,13 +4363,13 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N36" s="9">
         <v>7.2916666666666671E-2</v>
@@ -3789,19 +4377,19 @@
     </row>
     <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N37" s="9">
         <v>7.5694444444444439E-2</v>
@@ -3809,70 +4397,70 @@
     </row>
     <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N41" s="9">
         <v>9.7222222222222224E-2</v>
@@ -3880,104 +4468,104 @@
     </row>
     <row r="42" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.35">
@@ -4003,7 +4591,9 @@
       <c r="X52" s="3"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="F53" s="3"/>
@@ -4023,11 +4613,11 @@
       <c r="X53" s="3"/>
     </row>
     <row r="54" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
-        <v>163</v>
+      <c r="A54" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" s="5"/>
       <c r="K54" s="8" t="s">
@@ -4036,153 +4626,230 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="28" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="C67" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A69" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B72" s="17" t="s">
-        <v>209</v>
-      </c>
+      <c r="C71" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C54" r:id="rId1" xr:uid="{D4CAF2C4-819C-4857-B4FF-684C5EF88CE2}"/>
     <hyperlink ref="C64" r:id="rId2" xr:uid="{03454A86-1125-479D-9521-9C049D264793}"/>
-    <hyperlink ref="B72" r:id="rId3" xr:uid="{E2319F55-677F-400D-B616-5CE7E4F77B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690CCBAF-F6CB-49E7-94CE-C69A5BC4D604}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{388DBCF3-FACB-4AFA-873B-92F7976E0A70}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6D6C5363-B73C-41DC-95A9-6E2C0CBE882A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEA133-1EA3-4033-9121-FE5587A0ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47224EE-00BB-4E00-A090-1C8A3A7614FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
   <si>
     <t>Урок 1</t>
   </si>
@@ -2068,6 +2068,21 @@
       </rPr>
       <t>dotnet new gitignore</t>
     </r>
+  </si>
+  <si>
+    <t>Настройка оболочки</t>
+  </si>
+  <si>
+    <t>git branch -u origin/&lt;название удаленной ветки&gt;</t>
+  </si>
+  <si>
+    <t>Если локальная ветка не привязана к удаленной ветке, то используем команду git branch -u origin/&lt;название удаленной ветки&gt;, чтобы связать. Затем используем git pull для скачивания изменений с удаленного репозитория</t>
+  </si>
+  <si>
+    <t>git remote show origin</t>
+  </si>
+  <si>
+    <t>Показать все ветки на локальном и удаленном репозиториях</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2407,9 +2422,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2437,9 +2449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2464,6 +2473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,13 +2941,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>196273</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3221182</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>655226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2973,13 +2985,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100514</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>77423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3310150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>378584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3017,13 +3029,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3440545</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>308118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3061,13 +3073,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1373911</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>374210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3394365</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>556875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3149,13 +3161,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1890059</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3380442</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>657411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3193,13 +3205,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1882589</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3309471</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>845831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3237,14 +3249,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>697311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3900713</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1674283</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1674282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3281,13 +3293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>118564</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>612054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1415150</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1015465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3325,13 +3337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114195</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1030408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1563489</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1163090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3369,13 +3381,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114193</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1173159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1542143</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1561687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3678,10 +3690,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3833,16 +3845,16 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="174" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>54</v>
       </c>
@@ -3866,30 +3878,30 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="25"/>
       <c r="I8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="12"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:24" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -3909,29 +3921,29 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="22"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="25"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
@@ -3964,7 +3976,7 @@
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4077,7 +4089,7 @@
       <c r="K20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="M20" s="5" t="s">
@@ -4190,7 +4202,7 @@
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -4204,13 +4216,13 @@
       <c r="K25" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -4331,7 +4343,7 @@
       <c r="K34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4470,7 +4482,7 @@
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -4498,7 +4510,7 @@
       <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -4508,311 +4520,329 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="17" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="6"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="K54" s="8" t="s">
+      <c r="D56" s="5"/>
+      <c r="K56" s="8" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
+    <row r="67" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C67" s="27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="30" t="s">
+    <row r="68" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+    <row r="69" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C69" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
+    <row r="70" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+    <row r="71" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+    <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+    <row r="73" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C73" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+    <row r="74" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="B73" s="5" t="s">
+    <row r="75" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C75" s="30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+    <row r="77" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B78"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C54" r:id="rId1" xr:uid="{D4CAF2C4-819C-4857-B4FF-684C5EF88CE2}"/>
-    <hyperlink ref="C64" r:id="rId2" xr:uid="{03454A86-1125-479D-9521-9C049D264793}"/>
+    <hyperlink ref="C56" r:id="rId1" xr:uid="{D4CAF2C4-819C-4857-B4FF-684C5EF88CE2}"/>
+    <hyperlink ref="C66" r:id="rId2" xr:uid="{03454A86-1125-479D-9521-9C049D264793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId3"/>
@@ -4836,7 +4866,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>189</v>
       </c>
     </row>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47224EE-00BB-4E00-A090-1C8A3A7614FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C11E2-FEB8-4D8E-8A4F-9AFB0427EDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="294">
   <si>
     <t>Урок 1</t>
   </si>
@@ -451,11 +451,6 @@
     </r>
   </si>
   <si>
-    <t>1 Слить стороннюю ветку с текущей веткой
-2 Если после сливания веток происходит конфликт, нужно построчно помочь git слить ветки (выбрать начальный вариант, новый вариант или оба варианта). [Существует всегда один человек в команде, который отвечает за слитие веток и решение конфликтов]
-После разрешения конфликтов, мы выполняем git add и git commit нового слитого файла</t>
-  </si>
-  <si>
     <t>0:45:00
 1:03:00</t>
   </si>
@@ -770,36 +765,6 @@
   </si>
   <si>
     <t>1:31:00 - 2:00:00</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Важно! Лучше всего после каждого git merge обязательно выполнять команду git status
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Важно! В случае возникновения конфликта, проще всего обработать конфликт в том редакторе (например PyCharm), в котором написан код, а не использовать неудобный vim </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Семинар 2 2:00:00</t>
-    </r>
   </si>
   <si>
     <t>Продолжение</t>
@@ -2084,17 +2049,476 @@
   <si>
     <t>Показать все ветки на локальном и удаленном репозиториях</t>
   </si>
+  <si>
+    <t>Урок 1 часть 1</t>
+  </si>
+  <si>
+    <t>Углубленный гит</t>
+  </si>
+  <si>
+    <t>Ситуация 1</t>
+  </si>
+  <si>
+    <t>Чужой человек внес изменения в удаленный репозиторий  на ветку 2</t>
+  </si>
+  <si>
+    <t>Нам необходимо узнать, какие изменения были внесены, не загружая их на свой локальный репозиторий, используя локальный bash</t>
+  </si>
+  <si>
+    <t>git log origin/&lt;имя ветки 2&gt; ^&lt;имя ветки 2&gt;</t>
+  </si>
+  <si>
+    <t>origin/&lt;имя ветки 2&gt; - ветка на удаленном репо
+&lt;имя ветки 2&gt; - ветка на локальном репо</t>
+  </si>
+  <si>
+    <t>показать разницу в комитах между удаленном и локальной ветками 2</t>
+  </si>
+  <si>
+    <t>git diff &lt;хэш комита - из результатов разницы комитов&gt;</t>
+  </si>
+  <si>
+    <t>показать изменения, внесенные на удаленном репозитории</t>
+  </si>
+  <si>
+    <t>загрузить изменения с удаленного на локальный репо</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">загрузить изменения с удаленного на локальный репо </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(однако без включения этих изменений в локальную ветку). То есть далее</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, благодаря git fetch мы сможем обращаться к ветке origin/&lt;ветка 2&gt; (удаленная ветка) на нашем локальном репозитории и смотреть имеющуюся в ней информацию</t>
+    </r>
+  </si>
+  <si>
+    <t>показать информацию о ветках на локальном и удаленном репо (включая инструкции, которые будут выполняться при использовании коротких команд git push и git pull)</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Также как и git remote show origin показывает пути до удаленного репозитория, однако не делает запроса на удаленный репо для предоставления подробной инфо о ветках</t>
+  </si>
+  <si>
+    <t>git remote remove origin</t>
+  </si>
+  <si>
+    <t>git remote set-url origin &lt;ссылка на новый удаленный репо&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аналог: git remote remove origin; git remote add origin &lt;ссылка на новый удаленный репо&gt; </t>
+  </si>
+  <si>
+    <t>антоним: git remote add origin &lt;ссылка на новый удаленный репо&gt;</t>
+  </si>
+  <si>
+    <t>`--push - изменение пути отдельно для push
+--fetch  - изменение пути отдельно для fetch</t>
+  </si>
+  <si>
+    <t>Ситуация 2</t>
+  </si>
+  <si>
+    <t>Нам  необходимо связать локальный репозиторий с еще одним удаленным репозиторием</t>
+  </si>
+  <si>
+    <t>git remote add &lt;указать идентификатор:не origin&gt; &lt;ссылка на новый удаленный репо&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пример: 
+git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vendor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git@github.com:sortedmap/vendor-repo.git</t>
+    </r>
+  </si>
+  <si>
+    <t>Ситуация 3</t>
+  </si>
+  <si>
+    <t>git pull origin &lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>git pull origin &lt;название ветки&gt;
+git push origin &lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>git fetch --all</t>
+  </si>
+  <si>
+    <t>git remote show vendor</t>
+  </si>
+  <si>
+    <t>Ситуация 4</t>
+  </si>
+  <si>
+    <t>Необходимо настроить команду git push, чтобы она сразу отправляла изменения на все удаленные репозитории</t>
+  </si>
+  <si>
+    <t>Для этого необходимо создать вирутальный репозиторий, который будет содержать пути ко всему удаленным репозиториям</t>
+  </si>
+  <si>
+    <t>git remote add all &lt;ссылка на удаленный репозиторий 1&gt;</t>
+  </si>
+  <si>
+    <t>git remote set-url --add --push all &lt;ссылка на удаленный репозиторий 2&gt;</t>
+  </si>
+  <si>
+    <t>git remote set-url --add --push all &lt;ссылка на удаленный репозиторий 1&gt;</t>
+  </si>
+  <si>
+    <t>придется прописать еще раз команду, так как первая команда не добавит, а перезапишет имеющийся путь</t>
+  </si>
+  <si>
+    <t>создать переменную all со ссылкой на "удаленный репозриторий 1"</t>
+  </si>
+  <si>
+    <t>дополнить ссылку на "еще один репозиторий" для переменной all</t>
+  </si>
+  <si>
+    <t>git push -u all &lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>Удалить переменную origin, содержащую ссылки на удаленные репозитории</t>
+  </si>
+  <si>
+    <t>git log
+git log --oneline
+git log --oneline --all - показать коммиты, включая ветки не находящиеся на локальном репо (то есть ветки удаленного репо, если была сделана команда git fetch)
+git log --online --all --graph</t>
+  </si>
+  <si>
+    <t>`-r - вывести список веток, расположенных на удаленном репозитории</t>
+  </si>
+  <si>
+    <r>
+      <t>Стянуть удаленные ветки со всех удаленных репозиториев</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и слить их.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+git pull = git fetch --all + git merge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стянуть удаленные ветки со всех удаленных репозиториев, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>но не сливать их.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Есть возможно проанализировать удаленные ветки командами git log origin/&lt;имя ветки 2&gt; ^&lt;имя ветки 2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Команды</t>
+  </si>
+  <si>
+    <t>git remote show</t>
+  </si>
+  <si>
+    <t>git log --oneline --all</t>
+  </si>
+  <si>
+    <t>git branch &lt;название переменной окружения удаленного репо&gt;/&lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>git branch -r</t>
+  </si>
+  <si>
+    <t>git checkout &lt;название переменной окружения удаленного репо&gt;/&lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Важно! Лучше всего после каждого git merge обязательно выполнять команду git status
+Важно! В случае возникновения конфликта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, сворачиваем окно git bash, открываем тот файл, с которым возник конфликт (в нем уже будет представлено две версии - из удаленного и из локального репозиториев), отредактировать файл так, как он по моему мнению должен выглядеть и далее отправить его на удаленный репозриторий командой git push. Проще всего обработать конфликт в том редакторе (например PyCharm).  А потом дополнительно использовать команды git add . ; git commit -m "merge branches" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семинар 2 2:00:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Слить стороннюю ветку с текущей веткой
+2 Если после сливания веток происходит конфликт, нужно построчно помочь git слить ветки (выбрать начальный вариант, новый вариант или оба варианта). [Существует всегда один человек в команде, который отвечает за слитие веток и решение конфликтов]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 После разрешения конфликтов, мы выполняем git add и git commit нового слитого файла</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При таком слиянии потребуется отладить возможные конфликты. 
+В случае возникновения конфликта, сворачиваем окно git bash, открываем тот файл, с которым возник конфликт (в нем уже будет представлено две версии - из удаленного и из локального репозиториев), отредактировать файл так, как он по моему мнению должен выглядеть и далее отправить его на удаленный репозриторий командой git push. Проще всего обработать конфликт в том редакторе (например PyCharm).
+А потом дополнительно использовать команды git add . ; git commit -m "merge branches"</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote add &lt;название переменной окружения удаленного репо&gt; &lt;ссылка на удаленный репозиторий 1&gt;</t>
+  </si>
+  <si>
+    <t>git remote set-url --add --push &lt;название переменной окружения удаленного репо&gt; &lt;ссылка на удаленный репозиторий 2&gt;</t>
+  </si>
+  <si>
+    <t>git remote remove &lt;название переменной окружения удаленного репо&gt;</t>
+  </si>
+  <si>
+    <t>Добавление переменных окружения, хранящих ссылки на удаленные репозитории</t>
+  </si>
+  <si>
+    <t>git push &lt;название переменной окружения удаленного репо&gt; &lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>Втка</t>
+  </si>
+  <si>
+    <r>
+      <t>git merge vendor/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;имя ветки 2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Произошли изменения на обоих удаленных репо, однако на разных ветках (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ветка 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> соответственно). Нам необходимо стянуть эти изменения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git merge origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2246,8 +2670,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2287,6 +2720,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,9 +2827,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2401,10 +2846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2416,22 +2861,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2461,20 +2906,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3690,10 +4160,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3817,7 +4287,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -3846,13 +4316,13 @@
     </row>
     <row r="7" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="20"/>
       <c r="F7" s="5" t="s">
@@ -3871,7 +4341,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N7" s="9">
         <v>9.0277777777777776E-2</v>
@@ -3879,11 +4349,11 @@
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="25"/>
       <c r="I8" s="9"/>
@@ -3914,7 +4384,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>26</v>
@@ -3922,26 +4392,26 @@
     </row>
     <row r="10" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="11"/>
@@ -3951,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -3977,7 +4447,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -4087,13 +4557,13 @@
         <v>4</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N20" s="9">
         <v>2.6041666666666668E-2</v>
@@ -4103,6 +4573,9 @@
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
@@ -4113,13 +4586,13 @@
         <v>40</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="N21" s="9">
         <v>3.0902777777777779E-2</v>
@@ -4136,25 +4609,25 @@
         <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N22" s="9">
         <v>5.347222222222222E-2</v>
@@ -4174,51 +4647,51 @@
         <v>41</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
@@ -4226,7 +4699,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>65</v>
@@ -4238,13 +4711,13 @@
         <v>43</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="N26" s="9">
         <v>9.5138888888888884E-2</v>
@@ -4279,7 +4752,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -4310,13 +4783,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N32" s="9">
         <v>5.8333333333333327E-2</v>
@@ -4324,10 +4797,10 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N33" s="9">
         <v>6.3888888888888884E-2</v>
@@ -4335,39 +4808,39 @@
     </row>
     <row r="34" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="N35" s="9">
         <v>6.805555555555555E-2</v>
@@ -4375,13 +4848,13 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="N36" s="9">
         <v>7.2916666666666671E-2</v>
@@ -4389,19 +4862,19 @@
     </row>
     <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="L37" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N37" s="9">
         <v>7.5694444444444439E-2</v>
@@ -4409,70 +4882,70 @@
     </row>
     <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N41" s="9">
         <v>9.7222222222222224E-2</v>
@@ -4480,122 +4953,122 @@
     </row>
     <row r="42" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="31"/>
+        <v>225</v>
+      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" s="31"/>
+        <v>227</v>
+      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
@@ -4622,7 +5095,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -4644,10 +5117,10 @@
     </row>
     <row r="56" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="5"/>
       <c r="K56" s="8" t="s">
@@ -4656,188 +5129,517 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="145" x14ac:dyDescent="0.35">
       <c r="A70" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="C74" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="145" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80"/>
+    </row>
+    <row r="81" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="32"/>
+    </row>
+    <row r="82" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="G82" s="37"/>
+      <c r="J82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="T82" s="35"/>
+      <c r="V82" s="37"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A83" s="38"/>
+      <c r="B83" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C84" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B85" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="38"/>
+      <c r="B91" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" s="38"/>
+      <c r="B95" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C96" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="38"/>
+      <c r="B98" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C99" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="38"/>
+      <c r="B106" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C107" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C108" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4862,17 +5664,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C11E2-FEB8-4D8E-8A4F-9AFB0427EDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E4DCE-F2F0-4B4B-8C4C-E7A4AF04C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="525">
   <si>
     <t>Урок 1</t>
   </si>
@@ -198,12 +198,6 @@
 После этого git включает переданную версию файла в реестр контроля версий и завершает учет до момента новых изменений.</t>
   </si>
   <si>
-    <t>git branch --list</t>
-  </si>
-  <si>
-    <t>Показать, какие ветки имеются в нашем репозитории</t>
-  </si>
-  <si>
     <t>git branch &lt;название новой ветки&gt;</t>
   </si>
   <si>
@@ -231,26 +225,6 @@
       </rPr>
       <t xml:space="preserve"> от той ветки, где мы находимся!</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Слияние происходит в ту ветку, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в которой мы находимся</t>
-    </r>
-  </si>
-  <si>
-    <t>git merge &lt;название ветки, которую мы хотим слить в нашу текущую ветку&gt;</t>
   </si>
   <si>
     <t>По умолчанию открывает окно с содержимым файлом без возможности редактирования содержимого, но с возможностью задавать команды конце окна
@@ -1988,13 +1962,7 @@
     </r>
   </si>
   <si>
-    <t>git reset --hard HEAD</t>
-  </si>
-  <si>
     <t>Это самый прямой, ОПАСНЫЙ и часто используемый вариант. При использовании аргумента --hard указатели в истории коммитов обновляются на указанный коммит. Затем происходит сброс раздела проиндексированных файлов и рабочего каталога до указанного коммита. Все предыдущие ожидающие изменения в разделе проиндексированных файлов и рабочем каталоге сбрасываются в соответствии с состоянием дерева коммитов. Это значит, что любая работа, находившаяся в состоянии ожидания в разделе проиндексированных файлов и рабочем каталоге, будет потеряна.</t>
-  </si>
-  <si>
-    <t>git reset --mixed HEAD</t>
   </si>
   <si>
     <t>Преимущество, но и проблема: позволяет легко перескочить на любой более ранний коммит с сохранением последней сделанной работы (таким образом убирая целый ряд коммитов из списка git log). Ремарка: также переводить любую работу из дерева 2 (git add) в дерево 1 (unstaged)</t>
@@ -2188,9 +2156,6 @@
     </r>
   </si>
   <si>
-    <t>Ситуация 3</t>
-  </si>
-  <si>
     <t>git pull origin &lt;название ветки&gt;</t>
   </si>
   <si>
@@ -2199,9 +2164,6 @@
   </si>
   <si>
     <t>Вариант 1</t>
-  </si>
-  <si>
-    <t>Вариант 2</t>
   </si>
   <si>
     <t>git fetch --all</t>
@@ -2249,9 +2211,6 @@
 git log --online --all --graph</t>
   </si>
   <si>
-    <t>`-r - вывести список веток, расположенных на удаленном репозитории</t>
-  </si>
-  <si>
     <r>
       <t>Стянуть удаленные ветки со всех удаленных репозиториев</t>
     </r>
@@ -2311,19 +2270,10 @@
     <t>Команды</t>
   </si>
   <si>
-    <t>git remote show</t>
-  </si>
-  <si>
     <t>git log --oneline --all</t>
   </si>
   <si>
-    <t>git branch &lt;название переменной окружения удаленного репо&gt;/&lt;название ветки&gt;</t>
-  </si>
-  <si>
     <t>git branch -r</t>
-  </si>
-  <si>
-    <t>git checkout &lt;название переменной окружения удаленного репо&gt;/&lt;название ветки&gt;</t>
   </si>
   <si>
     <r>
@@ -2403,21 +2353,12 @@
     <t>git remote add &lt;название переменной окружения удаленного репо&gt; &lt;ссылка на удаленный репозиторий 1&gt;</t>
   </si>
   <si>
-    <t>git remote set-url --add --push &lt;название переменной окружения удаленного репо&gt; &lt;ссылка на удаленный репозиторий 2&gt;</t>
-  </si>
-  <si>
     <t>git remote remove &lt;название переменной окружения удаленного репо&gt;</t>
   </si>
   <si>
     <t>Добавление переменных окружения, хранящих ссылки на удаленные репозитории</t>
   </si>
   <si>
-    <t>git push &lt;название переменной окружения удаленного репо&gt; &lt;название ветки&gt;</t>
-  </si>
-  <si>
-    <t>Втка</t>
-  </si>
-  <si>
     <r>
       <t>git merge vendor/</t>
     </r>
@@ -2498,6 +2439,2200 @@
         <scheme val="minor"/>
       </rPr>
       <t>master</t>
+    </r>
+  </si>
+  <si>
+    <t>00 45 30</t>
+  </si>
+  <si>
+    <t>показать коммиты на всех ветках</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>показать коммиты на текущей ветке</t>
+  </si>
+  <si>
+    <t>показать переменные окружения, хранящие ссылки на удаленные репо</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важное предусловие</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: данный подход сработает только, если на локальном и двух удаленных репозиториях будет одна история коммитов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важное предусловие</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (история коммитов удаленных репозиториев не совпадают) данный подход уничтожит коммиты одного из двух удаленных репозиториев и вольет в него коммиты другого репозитория</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote add source &lt;URL удаленного репо&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push source --force </t>
+  </si>
+  <si>
+    <t>удаляет все содержимое удаленного репозитория и заливает на него коммиты локального репозитория</t>
+  </si>
+  <si>
+    <t>Ситуация 3.2</t>
+  </si>
+  <si>
+    <t>Ситуация 3.1</t>
+  </si>
+  <si>
+    <t>git log --oneline --all &lt;ветка 1&gt; ^&lt;ветка 2&gt;</t>
+  </si>
+  <si>
+    <t>показать коммиты, которых есть в ветке 1, но нет ветке 2</t>
+  </si>
+  <si>
+    <r>
+      <t>git remote show &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git push &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;название ветки&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git branch &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;/&lt;название ветки&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git checkout &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;/&lt;название ветки&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git remote set-url --add --push &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;ссылка на удаленный репозиторий 2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git push &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>название переменной окружения удаленного репо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;название ветки&gt; --force</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">заливает коммиты с локального репозитория на выбранный удаленный репозиторий </t>
+  </si>
+  <si>
+    <t>показать ветки удаленного репозитория</t>
+  </si>
+  <si>
+    <t>перейти на ветку удаленного репозитория</t>
+  </si>
+  <si>
+    <t>скачать, но не слить, изменения удаленного репозитория</t>
+  </si>
+  <si>
+    <t>удалить переменную окражения, хранящую ссылку на удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>добавить ссылку на еще один удаленный репозриторий к переменной окружения, которая будет доступна по команде push. Залив локального репозритория будет производиться сразу по всем ссылкам, хранящимся в в выбранной переменной окружения</t>
+  </si>
+  <si>
+    <t>добавить переменную окружения и ссылку на один удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 1</t>
+  </si>
+  <si>
+    <t>Работа с удаленными репозиториями</t>
+  </si>
+  <si>
+    <t>Углубленный гит: работа с удаленными репозиториями</t>
+  </si>
+  <si>
+    <t>git show</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать детали последнего коммита, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>включая вывод в терминал хэша, сообщения, текст всех файлов (в которых произошли изменения)</t>
+    </r>
+  </si>
+  <si>
+    <t>git diff &lt;путь к новому/измененному файлу&gt;</t>
+  </si>
+  <si>
+    <t>00 13 55</t>
+  </si>
+  <si>
+    <t>показать детали изменений, произошедших во всех файлах, в которых произошли изменения</t>
+  </si>
+  <si>
+    <t>00 14 20</t>
+  </si>
+  <si>
+    <t>git diff &lt;хэш раннего коммита&gt; &lt;хэш позднего коммита&gt; &lt;путь до файла&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать изменения произошедшие между коммитами </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в рамках только указанных файлов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать изменения произошедшие между коммитами </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>во всех файлах, указанных в этих коммитах</t>
+    </r>
+  </si>
+  <si>
+    <t>git branch --list
+git branch -a
+git branch -r</t>
+  </si>
+  <si>
+    <t>Показать, какие ветки имеются в нашем репозитории
+Показать ветки на локальном и удаленных репозиториях
+Показать ветки на удаленных репозиториях</t>
+  </si>
+  <si>
+    <t>`-r - вывести список веток, расположенных на удаленном репозитории
+-a - показать ветки на локальном и удаленных репозиториях</t>
+  </si>
+  <si>
+    <t>Показать ветки на локальном и удаленных репозиториях</t>
+  </si>
+  <si>
+    <t>Показать ветки на удаленных репозиториях</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать детали изменений, произошедших в файле </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>относительно последнего коммита, в котором был указан данный файл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>включая вывод в терминал текста всего файла</t>
+    </r>
+  </si>
+  <si>
+    <t>git diff &lt;путь к файлу1&gt; &lt;путь к файлу2&gt;</t>
+  </si>
+  <si>
+    <t>00 20 00</t>
+  </si>
+  <si>
+    <t>показать изменения произошедшие между файлами. Оптимальнее перечислять сначала более раннюю версию, а на второе место указывать файл с более поздней версией</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень полезно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в том числе работает вне git репозитория</t>
+    </r>
+  </si>
+  <si>
+    <t>git blame &lt;путь к закомиченному файлу&gt;</t>
+  </si>
+  <si>
+    <t>00 21 30</t>
+  </si>
+  <si>
+    <t>git diff &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">показать изменения произошедшие между выбранным (ранним) коммитом и самым последним совершенным коммитом </t>
+  </si>
+  <si>
+    <t>Аналог: git diff &lt;хэш коммита&gt; &lt;хэш последнего коммита&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать построчно содержимое файла </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с выводом статистики об авторах, датах коммитов в терминал</t>
+    </r>
+  </si>
+  <si>
+    <t>00 31 00</t>
+  </si>
+  <si>
+    <t>Отслеживание изменений</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Подсказка!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Самый простой способ игнорировать файлы и папки через .gitignore - скопировать пути до папок/файлов, которые указываются как результат команды git status, в файл .gitignore</t>
+    </r>
+  </si>
+  <si>
+    <t>3 прописываем названия папок /&lt;название папки&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;название файла.расширение&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-игнорирование файла глобально, то есть по всем папкам/директориям  репозитория
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&lt;название папки&gt;/&lt;название файла.расширение&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - чтобы игнорировать файл не глобально, а только в конкретной папке
+3 прописываем названия папок </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&lt;название папки&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 игнорирование всех файлов в определенной папке с определнным расширением /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;название папки&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;расширение&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 ! не игнорирует тот файл, к которому прописан путь, даже если игнорируется вся папка или файлы с определенным расширением</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При игнорировании целой папки (/&lt;название папки&gt; ), мы не сможем воспользоваться исключающим символом ! в отношении файлов, которые нам требуется отслеживать (! не будет работать)</t>
+    </r>
+  </si>
+  <si>
+    <t>logs/
+!logs/special.log ##не будет работать</t>
+  </si>
+  <si>
+    <t>logs/*.log
+!logs/special.log ## будет работать</t>
+  </si>
+  <si>
+    <t>git restore &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>git add &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+  </si>
+  <si>
+    <t>git rm --cached &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>git clean -f</t>
+  </si>
+  <si>
+    <t>удалить файлы, которые еще ни разу не комитились</t>
+  </si>
+  <si>
+    <t>файлы</t>
+  </si>
+  <si>
+    <t>файл</t>
+  </si>
+  <si>
+    <t>отменить изменения в файлах, которые имеют хотя бы один комит</t>
+  </si>
+  <si>
+    <t>00 45 00</t>
+  </si>
+  <si>
+    <t>00 39 00</t>
+  </si>
+  <si>
+    <t>git restore --staged &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>Удаление файлов из отслеживания (до коммита)</t>
+  </si>
+  <si>
+    <t>Удаление файлов из отслеживания (после коммита)</t>
+  </si>
+  <si>
+    <t>У нас есть несколько занесенных коммитов</t>
+  </si>
+  <si>
+    <t>позволяет проанализировать версии файла, которые могут быть нам интересны для отката изменений</t>
+  </si>
+  <si>
+    <t>git diff &lt;хэш комита&gt; &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>git checkout &lt;хэш комита&gt; &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <t>Путь 1</t>
+  </si>
+  <si>
+    <t>git status покажет, что файл готов к коммиту</t>
+  </si>
+  <si>
+    <t>git commit -m "" позволит добавить коммит со старой версией файла</t>
+  </si>
+  <si>
+    <t>Путь 2</t>
+  </si>
+  <si>
+    <t>git restore --staged &lt;имя файла&gt; позволит отменить add к определенному файлу (до коммита)</t>
+  </si>
+  <si>
+    <t>git reset --hard &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <t>git reset --mixed &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <t>Важно! После применения данной команды уже невозможно будет осуществить команду git restore &lt;имя файла&gt;. Файл будет полностью выброшен из отслеживания git и к нему будет потеряна возможность обращения</t>
+  </si>
+  <si>
+    <t>git log &lt;имя файла&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Данный способ работает только при указании конкретного файла. Если пытаться вернуться ко всему коммиту целиком и продолжить от него работу git checkout &lt;хэш коммита&gt;, то ничего не получится - данная команда предзназначена только для ознакомления с версиями файлов определенного коммита в истории, а не внесения изменений. Лучше тогда использовать команду git reset --?? &lt;хэш комита&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">позволяет перейти в состояние файла, в котором он находился на момент указанного комита, а далее </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(смотри Путь 1 и Путь 2 ниже)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">файлы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-без параметров</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - удаляет все изменения, которые были сделаны вплоть до последнего коммита</t>
+    </r>
+  </si>
+  <si>
+    <t>git rebase &lt;имя ветки&gt;</t>
+  </si>
+  <si>
+    <t>Коррекция сообщений в коммите</t>
+  </si>
+  <si>
+    <t>01 02 00</t>
+  </si>
+  <si>
+    <r>
+      <t>git commit --amend -m "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сообщение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"
+git commit --amend --no-edit</t>
+    </r>
+  </si>
+  <si>
+    <t>`--no-edit - без сообщения</t>
+  </si>
+  <si>
+    <t>Отмена слияния веток</t>
+  </si>
+  <si>
+    <t>01 03 50</t>
+  </si>
+  <si>
+    <t>git merge &lt;some_branch&gt;</t>
+  </si>
+  <si>
+    <t>из ветки master</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git reset --merge &lt;хэш коммита до merge&gt;</t>
+  </si>
+  <si>
+    <t>позволяет отменить merge с восстановлением до последнего коммита</t>
+  </si>
+  <si>
+    <t>01 06 54</t>
+  </si>
+  <si>
+    <t>без конфликтов</t>
+  </si>
+  <si>
+    <t>с конфликтами</t>
+  </si>
+  <si>
+    <t>git merge --abort</t>
+  </si>
+  <si>
+    <t>Откладывание изменений/коммитов</t>
+  </si>
+  <si>
+    <t>01 10 00</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>позволяет отложить изменения (новые или удаленные символы) в отдельный сегмент памяти git</t>
+  </si>
+  <si>
+    <t>позволяет восстановить изменения, ранее отложенные в отдельный сегмент памяти git. Таким образом происходит слияние с той версией файла, которая существует на момент вызова команды git stash pop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Данная команда работает только в отношении файлов, которые хотя бы раз (когда-то) были добавлены в индекс (git add)</t>
+    </r>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>выводит список стэшей в порядке стэка</t>
+  </si>
+  <si>
+    <t>git stash drop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Очередь удаления изменений в стэше происходит в порядке стэка</t>
+    </r>
+  </si>
+  <si>
+    <t>позволяет удалить один стэш из стэке стэшей</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Очередь восстановления изменений из стэша происходит в порядке стэка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Может быть конфликт при восстановлении стэша. Такой конфликт нужно разрешать вручную.
+1 Вначале производим git add .; git commit -m в отношении текущего файла, вызвавшего conflict abort
+2 Затем вызываем команду git stash pop
+3 Затем разрешаем конфликт merge
+4 Используя в конце git add .; git commit -m
+К сожалению, существует баг что после манипуляций выше изменение продолжает храниться в stash. Его можно увидеть командой git stash list. Его можно удалить git stash drop</t>
+    </r>
+  </si>
+  <si>
+    <t>Перемещение изменений/коммитов (между ветками)</t>
+  </si>
+  <si>
+    <t>01 23 00</t>
+  </si>
+  <si>
+    <t>git rebase master</t>
+  </si>
+  <si>
+    <t>git cherry-pick &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <t>Урок 3 часть 1</t>
+  </si>
+  <si>
+    <t>Углубленный гит: модели работы с ветками в Git</t>
+  </si>
+  <si>
+    <t>00 05 40</t>
+  </si>
+  <si>
+    <t>Git flow</t>
+  </si>
+  <si>
+    <t>`--no-commit - позволяет  отменить изменения файлов в каждом отдельном коммите без сохранения коммита revert. Однако git status все равно будет требовать занесения отдельного коммита, так как файлы будут изменены. Это удобно, когда нужно отменить изменения в более чем одном коммите, избегая каждый раз вводить сообщение revert commit - сделав это лишь в конце один раз</t>
+  </si>
+  <si>
+    <t>Источник: https://devsday.ru/blog/details/46338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поток непрерывных изменений и их публикации.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Суть!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Есть основная ветка (master)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, которую мы тщательно охраняем от вливания непроверенных изменений.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Есть ветка develop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (может также называться dev, devil, develop), в которую вливаются все свежие изменения и на которой проверяется работоспособность кода. От этой ветки создаются другие ветки, в рамках которых разработчики реализуют свои задачи (обычно создается по одной ветки, на каждую такую задачу)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Прицип вливания выполненных задач!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Задача (ветка), которая выполнена должна влиться в ветку develop. Когда накапливается определенный объем выполненных задач (и они уже протестированы разработчиками), эти задачи вливаются в ветку release, где все наработки еще раз очень тщательно тестируются</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotfix</t>
+  </si>
+  <si>
+    <t>00 07 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ветка для внесения бытрых изменений в master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Позволяет обходить общий процесс выкладки изменений. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Дополнительные варианты! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Могут быть дополнительные постоянные ветки такие как: test1, test2, test3, для тестировщиков</t>
+    </r>
+  </si>
+  <si>
+    <t>Trunk-based development (TBD)</t>
+  </si>
+  <si>
+    <t>00 08 00</t>
+  </si>
+  <si>
+    <t>Trunk (с англ) - ствол</t>
+  </si>
+  <si>
+    <t>Разработка, основанная на единой ветке (master)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Суть!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В данной модели существует только одна постоянная ветка - master (никаких иных постоянных веток не создается)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Для отдельных задач создаются отдельные ветки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, которые живут недолго и удаляются сразу после вливания в ветку master. Более того, данные ветки вливаются в master в любой момент времени, включая случаи когда новая feature еще не завершена. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>00 08 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Также благодаря такому подходу возможно включение и отключение ранее внесенных commits - так называемые flags
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>То есть!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В самом приложении (которое мы разрабываем) указывается код, который проверяет поднять/опущен тот или иной флаг, таким образом отключая или подключая ту или иную фичу</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Данный подход является более современным и более гибким, чем git flow
+</t>
+  </si>
+  <si>
+    <t>00 09 48 - 00 21 00</t>
+  </si>
+  <si>
+    <t>Осмысливание практики</t>
+  </si>
+  <si>
+    <t>00 21 00 - 00 23 00</t>
+  </si>
+  <si>
+    <t>Принятые правила работы в GIT</t>
+  </si>
+  <si>
+    <t>00 23 00</t>
+  </si>
+  <si>
+    <t>Именование веток</t>
+  </si>
+  <si>
+    <r>
+      <t>17-news-list-pagination
+1 Латинские буквы в нижнем регистре, цифры и дефисы (snake case)
+2 Начало — номер задачи (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> только так gitlab и github определяет связь между ветками и соответствующими задачами)
+3 Суть задачи, решаемой в этой ветке</t>
+    </r>
+  </si>
+  <si>
+    <t>Содержимое коммитов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Коммиты могут быть двух видов ((1) по логике завершенных задач; (2) по времени выполнения - то есть save)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Реализованная задача</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - завершённая работа, либо логически понятный фрагмент работы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа за период</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - результат работы за сутки, отправляемый в ветку каждый вечер</t>
+    </r>
+  </si>
+  <si>
+    <t>Комментарии к коммитам</t>
+  </si>
+  <si>
+    <t>Комментарии к коммитам должны содержить всю информацию, которая содержатся в данном коммите</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit -m </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"##########"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+new list: pagination made portional, by 10 news
+per page by default and setting page size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примеры:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+master / main
+dev / devel / develop
+test / staging
+prod / production
+fixes / hot-fixes / hotfixes</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Отражение сути содержимого
+2 Соответствие стандартам в компании
+https://www.conventionalcommits.org/</t>
+  </si>
+  <si>
+    <t>Git в средах разработки</t>
+  </si>
+  <si>
+    <t>00 28 30</t>
+  </si>
+  <si>
+    <t>00 40 45</t>
+  </si>
+  <si>
+    <t>VSC Code</t>
+  </si>
+  <si>
+    <t>Intelligidea</t>
+  </si>
+  <si>
+    <t>1 Выберите какой-нибудь проект на изучаемом вами языке программирования, с которым вы будете тренироваться работать в Git, и инициализируйте в папке этого проекта локальный репозиторий.
+2 Создайте непустой удалённый репозиторий (например, с файлом README.md) с именем, соответствующим имени этого проекта.
+3 Подключите свой проект к этому удалённому репозиторию и отправьте в него код этого проекта. Самостоятельно разрешите конфликты и проблемы, если они возникнут при выполнении данного задания.</t>
+  </si>
+  <si>
+    <t>Добавляем в локальном репо ссылку на удаленный репо (на удаленном репо уже имеются свои коммиты - создан хотя бы один файл readme.md)</t>
+  </si>
+  <si>
+    <t>git remote add source &lt;https ссылка на удаленный репо&gt;</t>
+  </si>
+  <si>
+    <t>Проверяем, что удалось успешно подключить удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>git fetch source</t>
+  </si>
+  <si>
+    <t>Стягиваем все изменений с удаленного репо, но не сливаем с локальным репозиторием</t>
+  </si>
+  <si>
+    <t>git merge source/master</t>
+  </si>
+  <si>
+    <t>Пытаемся слить коммиты из удаленного репозитория</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>git merge --allow-unrelated-histories source/master</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>git push source master</t>
+  </si>
+  <si>
+    <t>Направляем слитый локальный репозиторий на новый удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>Способ 1</t>
+  </si>
+  <si>
+    <t>Способ 2</t>
+  </si>
+  <si>
+    <t>git rebase source/master</t>
+  </si>
+  <si>
+    <t>Перемещаем ветку локального master на состояние удаленного репо source/master, чтобы в локальной ветке master появились файлы из удаленной ветки source/master</t>
+  </si>
+  <si>
+    <t>git rebase &lt;указываем ветку, к которой делаем rebase&gt; выполняется только из той ветки, которую мы хотим переместить к &lt;указываемой ветке в команде&gt;</t>
+  </si>
+  <si>
+    <t>git log -p</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показать детали всех коммитов, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>включая вывод в терминал хэша, сообщения, текст всех файлов (в которых произошли изменения)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш позднего коммита</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; - стоит выше в последовательности git log --oneline
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш раннего коммита</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; - стоит ниже в последовательности git log --oneline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git diff &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш раннего коммита</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш позднего коммита</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>отменить изменения в файле (до коммита, до add)</t>
+  </si>
+  <si>
+    <t>отменить add к определенному файлу (до коммита, после add)</t>
+  </si>
+  <si>
+    <t>подтвердить изменения в файле (до коммита, до add)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналог:
+git reset --soft &lt;хэш коммита&gt;
+git restore --staged &lt;хэш коммита&gt;
+git restore &lt;хэш коммита&gt;
+</t>
+  </si>
+  <si>
+    <t>Аналог:
+git reset --soft &lt;хэш коммита&gt;
+git restore --staged &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <t>Аналог:
+git reset --soft &lt;хэш коммита&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>git reset --hard &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш коммита (не текущего/последнего) до которого следует осуществить reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git reset --mixed &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш коммита (не текущего/последнего) до которого следует осуществить reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git reset --soft &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>хэш коммита (не текущего/последнего) до которого следует осуществить reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>git revert &lt;хэш коммита&gt; = 
+git revert &lt;хэш коммита&gt; -n; git commit -m "Revert "Commit message" = 
+git revert &lt;хэш коммита&gt; --no-edit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Данная команда работает только, если git status сообщает, что все изменения были внесены и никаких изменений для добавления нет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">позволяет отменить изменения файлов (по состоянию файлов на момент последнего коммита), которые были влиты в рамках указанного коммита
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правило!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Очень правильно проводить git revert предварительно создав отдельную новую ветку и перейдя ы нее. Если все команды git revert были осуществлены успешно, то далее вернуться в изначальную рабочую ветку и осуществить git merge &lt;название ветки, где проводились git revert&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">убрать файл из отслеживания (если уже был один или более комитов)
+To untrack a single file that has already been added/initialized to your repository, i.e., stop tracking the file but not delete it from your system use: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git rm --cached filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To untrack every file that is now in your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gitignore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">файл
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если у нас имеется файл, который был когда-то по ошибке добавлен в репо, его невозможно успешно добавить в файл .gitignore. Также нужно исполнить команду git rm --cached &lt;имя файла&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> После использования данной команды, git status сообщит, что данный файл имеет статус deleted: &lt;имя файла&gt;. Однако этот файл никуда не был удален, просто его перестает отслеживать git. Для вступления изменений в силу необходимо выполнить команды git add &lt;имя файла&gt;; git commit -m "Игнорим логи"</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 2</t>
+  </si>
+  <si>
+    <t>01 17 00</t>
+  </si>
+  <si>
+    <t>settings - collaborators</t>
+  </si>
+  <si>
+    <t>Что такое линейная история коммитов?</t>
+  </si>
+  <si>
+    <t>Существует два способа работы с ветками</t>
+  </si>
+  <si>
+    <t>Создается ветка master. От нее создается ветка feature.
+Далее в master могут вноситься коммиты, которых не будет в feature.
+Далее мы делаем git merge feature. Таким способом мы навсегда делаем наш репозиторий нелинейным. Merge переносит лишь merge commit в master. Таким образом коммиты произошедшие в feature не будут перенесены в master, а значит потеряется линейность истории в ветке master</t>
+  </si>
+  <si>
+    <t>Создается ветка master. От нее создается ветка feature.
+Далее в master могут вноситься коммиты, которых не будет в feature.
+Далее в ветке feature мы делаем git rebase master и начинаем разрешать все конфликты путем использования git add .; git rebase --continue. Как только rebase успешно будет завершен, мы возвращается в ветку master и делаем команды git merge feature, которая в данном случае перенесет все коммиты feature в master в красивой последовательности (как будто и не было никакой ветки feature)</t>
+  </si>
+  <si>
+    <t>01 34 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариант 2
+</t>
+  </si>
+  <si>
+    <t>git fetch --all --prune</t>
+  </si>
+  <si>
+    <t>Стянуть все ветки с удаленного репозитория, удалив ветки, которые были ранее стянуты с удаленного репозитория, но позднее были удалены с удаленного репозитория</t>
+  </si>
+  <si>
+    <t>Семинар 3</t>
+  </si>
+  <si>
+    <t>Рекомендации по ведению репозиториев в командой проектной работе</t>
+  </si>
+  <si>
+    <t>Предпочтительнее создавать коммиты, которые содержат изменения максимум одного метода в класс. Так проще осуществлять review на этапе pull request</t>
+  </si>
+  <si>
+    <t>Предпочтительнее вести одну ветку master, от которой создавать другие ветки. А также осуществлять git rebase master после каждого изменения в master, произошедшего параллельно с разраоткой на ветке.</t>
+  </si>
+  <si>
+    <t>Важно проверять конфликты и осущетсвлять review кода не только в рамках pull requests, но и в момент, когда все pull requests слиты в master. Хотя ветки по отельности исполняют код успешно, master может не запуститься.</t>
+  </si>
+  <si>
+    <t>Рекомендуется создавать переменные с уникальными именами в коде, так как иначе самой сложной ситуацией для разрешения конфликтов является ситуация, при которой переменные двух разработчиков имеют идентичные имена.</t>
+  </si>
+  <si>
+    <t>Scrum meetings</t>
+  </si>
+  <si>
+    <t>Наиболее конкретной целью таких встреч (15 минут) является возможность принять информацию от каждого члена команды разработки, чтобы избежать лишней двойной работы. В рамках таких встреч определяется то, что уже было сделано другими.</t>
+  </si>
+  <si>
+    <t>Версирование</t>
+  </si>
+  <si>
+    <t>git tag 1.0.0</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>git tag --list</t>
+  </si>
+  <si>
+    <t>git push --tags</t>
+  </si>
+  <si>
+    <t>создает тэг/версию</t>
+  </si>
+  <si>
+    <t>показать версию текущей ветки</t>
+  </si>
+  <si>
+    <t>показать список всех тэгов</t>
+  </si>
+  <si>
+    <t>отправить информацию о тэгах на удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>git tag -d 1.0.0</t>
+  </si>
+  <si>
+    <t>удалить тэг</t>
+  </si>
+  <si>
+    <t>git push --delete origin 1.0.0</t>
+  </si>
+  <si>
+    <t>удалить тэг, подгруженный в удаленный репозиторий</t>
+  </si>
+  <si>
+    <t>git stash pop
+git stash pop &lt;хэш stash&gt;</t>
+  </si>
+  <si>
+    <t>git merge &lt;название ветки, которую мы хотим слить в нашу текущую ветку&gt;
+git merge &lt;название ветки, которую мы хотим слить в нашу текущую ветку&gt; --squash</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Слияние происходит в ту ветку, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в которой мы находимся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Влить ветку в ветку main одним коммитом </t>
+    </r>
+  </si>
+  <si>
+    <t>git &lt;branch name&gt; -pick &lt;hash commit&gt;</t>
+  </si>
+  <si>
+    <t>git &lt; &gt; -pick &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git &lt; &gt; -pick ..&lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>перенос последнего коммита</t>
+  </si>
+  <si>
+    <t>перенос всех коммитов</t>
+  </si>
+  <si>
+    <r>
+      <t>позволяет заменить сообщение последнего коммита (git commit -m "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сообщение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;") на другое
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если в git add имеются файлы, то данная команда берет все эти файлы, которые расположены в git add (в индексе, или мы можем предварительно туда добавить дополнительные файлы) и добавляет их в последний коммит</t>
     </r>
   </si>
 </sst>
@@ -2505,12 +4640,68 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2679,6 +4870,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2736,7 +4936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2824,12 +5024,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2846,10 +5126,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2861,22 +5141,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2906,14 +5186,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2925,7 +5205,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2941,11 +5221,74 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3661,7 +6004,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5767294" y="50837353"/>
+          <a:off x="5767294" y="51397647"/>
           <a:ext cx="1490383" cy="537882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3726,7 +6069,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>3900713</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>1674282</xdr:rowOff>
+      <xdr:rowOff>1655232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3881,8 +6224,223 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114193" y="53841873"/>
+          <a:off x="114193" y="54483277"/>
           <a:ext cx="1427950" cy="388528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>208110</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>91248</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3119727" cy="1051752"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C682874-CC30-466E-BF70-E4B4B7B87302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12056463" y="83844013"/>
+          <a:ext cx="3119727" cy="1051752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>343647</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>622432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2917952</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>2057948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C6D82F-92A4-DFD3-6152-51BA9EAB12B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220882" y="103051667"/>
+          <a:ext cx="2574305" cy="1435516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>91490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2687132</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>1159588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21D658A-F38A-80CF-890C-44BBECC4E96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235823" y="103805666"/>
+          <a:ext cx="2328544" cy="1068098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>138965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2756856</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>1249542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BAA0C9-4502-00A1-6F7C-307B185A1394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3951941" y="105145553"/>
+          <a:ext cx="2682150" cy="1110577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500530</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>173012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2265472</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>470085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB581557-3B24-E88A-C70C-D3C279B9A566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12348883" y="71748718"/>
+          <a:ext cx="1764942" cy="849897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4160,17 +6718,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X127"/>
+  <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="50" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="2"/>
     <col min="6" max="6" width="48.36328125" style="5" customWidth="1"/>
@@ -4273,7 +6831,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -4287,7 +6845,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -4305,10 +6863,10 @@
         <v>2.1388888888888888E-2</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N6" s="9">
         <v>5.0694444444444452E-2</v>
@@ -4316,20 +6874,20 @@
     </row>
     <row r="7" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" s="20"/>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>21</v>
@@ -4338,10 +6896,10 @@
         <v>3.7361111111111109E-2</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N7" s="9">
         <v>9.0277777777777776E-2</v>
@@ -4349,11 +6907,11 @@
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" s="25"/>
       <c r="I8" s="9"/>
@@ -4375,43 +6933,43 @@
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="11"/>
@@ -4421,7 +6979,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -4430,10 +6988,10 @@
         <v>13</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N12" s="9">
         <v>9.0277777777777776E-2</v>
@@ -4447,16 +7005,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" s="9">
         <v>9.2361111111111116E-2</v>
@@ -4470,13 +7028,13 @@
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>33</v>
+        <v>517</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>32</v>
+        <v>518</v>
       </c>
       <c r="N14" s="9">
         <v>0.10625</v>
@@ -4484,10 +7042,10 @@
     </row>
     <row r="15" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="K15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -4514,7 +7072,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
@@ -4545,25 +7103,25 @@
     </row>
     <row r="20" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N20" s="9">
         <v>2.6041666666666668E-2</v>
@@ -4571,28 +7129,28 @@
     </row>
     <row r="21" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N21" s="9">
         <v>3.0902777777777779E-2</v>
@@ -4600,34 +7158,34 @@
     </row>
     <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N22" s="9">
         <v>5.347222222222222E-2</v>
@@ -4635,89 +7193,89 @@
     </row>
     <row r="23" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N26" s="9">
         <v>9.5138888888888884E-2</v>
@@ -4725,7 +7283,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F27" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -4752,7 +7310,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -4783,13 +7341,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N32" s="9">
         <v>5.8333333333333327E-2</v>
@@ -4797,10 +7355,10 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N33" s="9">
         <v>6.3888888888888884E-2</v>
@@ -4808,39 +7366,39 @@
     </row>
     <row r="34" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N35" s="9">
         <v>6.805555555555555E-2</v>
@@ -4848,13 +7406,13 @@
     </row>
     <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N36" s="9">
         <v>7.2916666666666671E-2</v>
@@ -4862,19 +7420,19 @@
     </row>
     <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N37" s="9">
         <v>7.5694444444444439E-2</v>
@@ -4882,70 +7440,70 @@
     </row>
     <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N41" s="9">
         <v>9.7222222222222224E-2</v>
@@ -4953,122 +7511,122 @@
     </row>
     <row r="42" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
@@ -5095,7 +7653,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -5117,10 +7675,10 @@
     </row>
     <row r="56" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="5"/>
       <c r="K56" s="8" t="s">
@@ -5129,184 +7687,184 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>206</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -5337,11 +7895,11 @@
     </row>
     <row r="82" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="36" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B82" s="37"/>
-      <c r="C82" s="39" t="s">
-        <v>230</v>
+      <c r="C82" s="52" t="s">
+        <v>308</v>
       </c>
       <c r="E82" s="34"/>
       <c r="G82" s="37"/>
@@ -5353,292 +7911,1551 @@
       <c r="V82" s="37"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="38"/>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A84" s="46"/>
+      <c r="C84" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="47"/>
+    </row>
+    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="46"/>
+      <c r="B85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="47"/>
+    </row>
+    <row r="86" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="47"/>
+    </row>
+    <row r="87" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="47"/>
+    </row>
+    <row r="88" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="47"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" s="46" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C84" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B85" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="49" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="D90" s="50"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="43"/>
+      <c r="B91" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+    </row>
+    <row r="92" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="47"/>
+    </row>
+    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="47"/>
+    </row>
+    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="B94" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="49" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="38"/>
-      <c r="B91" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="D94" s="50"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
+      <c r="C95" s="44"/>
+      <c r="D95" s="45"/>
+    </row>
+    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="46"/>
+      <c r="C96" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+      <c r="D96" s="47"/>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="D97" s="47" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="38"/>
-      <c r="B95" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C96" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="38"/>
       <c r="B98" s="5" t="s">
-        <v>254</v>
+        <v>290</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B99" s="40" t="s">
+        <v>284</v>
+      </c>
       <c r="C99" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>258</v>
+        <v>492</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" s="40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>293</v>
+        <v>276</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="43"/>
+      <c r="B107" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" s="44"/>
+      <c r="D107" s="45"/>
+    </row>
+    <row r="108" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="46"/>
+      <c r="C108" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D108" s="47"/>
+    </row>
+    <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="47"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" s="47"/>
+    </row>
+    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D111" s="47"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="D112" s="47"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="47"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="47"/>
+    </row>
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" s="50"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" s="47"/>
+    </row>
+    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D117" s="47"/>
+    </row>
+    <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D118" s="47"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="43"/>
+      <c r="B119" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="44"/>
+      <c r="D119" s="45"/>
+    </row>
+    <row r="120" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="46"/>
+      <c r="B120" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="47"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" s="47"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" s="47"/>
+    </row>
+    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="D123" s="50"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="43"/>
+      <c r="B124" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="44"/>
+      <c r="D124" s="45"/>
+    </row>
+    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="46"/>
+      <c r="C125" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D125" s="47"/>
+    </row>
+    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="46"/>
+      <c r="C126" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" s="47"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="38"/>
-      <c r="B106" s="5" t="s">
+      <c r="D127" s="47"/>
+    </row>
+    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C107" s="5" t="s">
+      <c r="D128" s="47"/>
+    </row>
+    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D129" s="47"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="48" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C108" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="50"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="C135" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D136" s="22"/>
+    </row>
+    <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="21" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A124" s="38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>287</v>
+      <c r="C140" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D141" s="22"/>
+    </row>
+    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D142" s="22"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D143" s="22"/>
+    </row>
+    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D144" s="22"/>
+    </row>
+    <row r="145" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D145" s="22"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A146" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A148" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D148" s="22"/>
+    </row>
+    <row r="149" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="25"/>
+    </row>
+    <row r="151" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="31"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="31"/>
+      <c r="L151" s="31"/>
+      <c r="M151" s="31"/>
+      <c r="N151" s="31"/>
+      <c r="O151" s="34"/>
+      <c r="P151" s="32"/>
+      <c r="Q151" s="32"/>
+      <c r="R151" s="32"/>
+      <c r="S151" s="32"/>
+      <c r="T151" s="35"/>
+      <c r="U151" s="32"/>
+    </row>
+    <row r="152" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="37"/>
+      <c r="C152" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E152" s="34"/>
+      <c r="G152" s="37"/>
+      <c r="J152" s="34"/>
+      <c r="O152" s="34"/>
+      <c r="Q152" s="37"/>
+      <c r="R152" s="37"/>
+      <c r="T152" s="35"/>
+      <c r="V152" s="37"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A153" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B166" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C167" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D174" s="60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D175" s="53"/>
+    </row>
+    <row r="176" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D176" s="53"/>
+    </row>
+    <row r="177" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D177" s="53"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C179" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D182" s="53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C184" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C186" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D187" s="60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D191" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D192" s="47"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="49"/>
+      <c r="C193" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="D193" s="50"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="D194" s="45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D195" s="47"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" s="49"/>
+      <c r="C196" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" s="50"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="B202" s="54"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B203" s="54"/>
+      <c r="C203" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B204" s="54"/>
+      <c r="C204" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B205" s="54"/>
+      <c r="C205" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="54"/>
+      <c r="C206" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="54"/>
+      <c r="C207" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B208" s="54"/>
+      <c r="C208" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B209" s="54"/>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A210" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="31"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="31"/>
+      <c r="I219" s="31"/>
+      <c r="J219" s="34"/>
+      <c r="K219" s="31"/>
+      <c r="L219" s="31"/>
+      <c r="M219" s="31"/>
+      <c r="N219" s="31"/>
+      <c r="O219" s="34"/>
+      <c r="P219" s="32"/>
+      <c r="Q219" s="32"/>
+      <c r="R219" s="32"/>
+      <c r="S219" s="32"/>
+      <c r="T219" s="35"/>
+      <c r="U219" s="32"/>
+    </row>
+    <row r="220" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="B220" s="37"/>
+      <c r="C220" s="56"/>
+      <c r="E220" s="34"/>
+      <c r="G220" s="37"/>
+      <c r="J220" s="34"/>
+      <c r="O220" s="34"/>
+      <c r="Q220" s="37"/>
+      <c r="R220" s="37"/>
+      <c r="T220" s="35"/>
+      <c r="V220" s="37"/>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A221" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A222" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A223" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B224" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B225" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="31"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="31"/>
+      <c r="G236" s="32"/>
+      <c r="H236" s="31"/>
+      <c r="I236" s="31"/>
+      <c r="J236" s="34"/>
+      <c r="K236" s="31"/>
+      <c r="L236" s="31"/>
+      <c r="M236" s="31"/>
+      <c r="N236" s="31"/>
+      <c r="O236" s="34"/>
+      <c r="P236" s="32"/>
+      <c r="Q236" s="32"/>
+      <c r="R236" s="32"/>
+      <c r="S236" s="32"/>
+      <c r="T236" s="35"/>
+      <c r="U236" s="32"/>
+    </row>
+    <row r="237" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B237" s="37"/>
+      <c r="C237" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="E237" s="34"/>
+      <c r="G237" s="37"/>
+      <c r="J237" s="34"/>
+      <c r="O237" s="34"/>
+      <c r="Q237" s="37"/>
+      <c r="R237" s="37"/>
+      <c r="T237" s="35"/>
+      <c r="V237" s="37"/>
+    </row>
+    <row r="238" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A238" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A239" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C239" s="57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C242" s="57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="45"/>
+    </row>
+    <row r="248" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A248" s="48"/>
+      <c r="B248" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C248" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D248" s="50"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B249" s="44"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="45"/>
+    </row>
+    <row r="250" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A250" s="48"/>
+      <c r="B250" s="49"/>
+      <c r="C250" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="D250" s="50"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B251" s="44"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="45"/>
+    </row>
+    <row r="252" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A252" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B252" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D252" s="47"/>
+    </row>
+    <row r="253" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="48"/>
+      <c r="B253" s="49"/>
+      <c r="C253" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D253" s="50"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B255" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="31"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="31"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="31"/>
+      <c r="G263" s="32"/>
+      <c r="H263" s="31"/>
+      <c r="I263" s="31"/>
+      <c r="J263" s="34"/>
+      <c r="K263" s="31"/>
+      <c r="L263" s="31"/>
+      <c r="M263" s="31"/>
+      <c r="N263" s="31"/>
+      <c r="O263" s="34"/>
+      <c r="P263" s="32"/>
+      <c r="Q263" s="32"/>
+      <c r="R263" s="32"/>
+      <c r="S263" s="32"/>
+      <c r="T263" s="35"/>
+      <c r="U263" s="32"/>
+    </row>
+    <row r="264" spans="1:22" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A264" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B264" s="37"/>
+      <c r="C264" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="E264" s="34"/>
+      <c r="G264" s="37"/>
+      <c r="J264" s="34"/>
+      <c r="O264" s="34"/>
+      <c r="Q264" s="37"/>
+      <c r="R264" s="37"/>
+      <c r="T264" s="35"/>
+      <c r="V264" s="37"/>
+    </row>
+    <row r="265" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="5">
+        <v>1</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A266" s="5">
+        <v>2</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A267" s="5">
+        <v>3</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A268" s="5">
+        <v>4</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5664,17 +9481,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E4DCE-F2F0-4B4B-8C4C-E7A4AF04C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2E0292-AE95-443E-8BEA-6614B8DD24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4381,58 +4381,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">файл
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Пояснение! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Если у нас имеется файл, который был когда-то по ошибке добавлен в репо, его невозможно успешно добавить в файл .gitignore. Также нужно исполнить команду git rm --cached &lt;имя файла&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> После использования данной команды, git status сообщит, что данный файл имеет статус deleted: &lt;имя файла&gt;. Однако этот файл никуда не был удален, просто его перестает отслеживать git. Для вступления изменений в силу необходимо выполнить команды git add &lt;имя файла&gt;; git commit -m "Игнорим логи"</t>
-    </r>
-  </si>
-  <si>
     <t>Семинар 2</t>
   </si>
   <si>
@@ -4633,6 +4581,63 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Если в git add имеются файлы, то данная команда берет все эти файлы, которые расположены в git add (в индексе, или мы можем предварительно туда добавить дополнительные файлы) и добавляет их в последний коммит</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">файл
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если у нас имеется файл, который был когда-то по ошибке добавлен в репо, его невозможно успешно добавить в файл .gitignore. Нужно:
+1) добавить файл в .gitignore
+2) исполнить команду git rm --cached &lt;имя файла&gt;
+3) исполнить команду git add . (на сам файл и .gitignore)
+4) git commit -m ""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+После использования данной команды, git status сообщит, что данный файл имеет статус deleted: &lt;имя файла&gt;. Однако этот файл никуда не был удален, просто его перестает отслеживать git. </t>
     </r>
   </si>
 </sst>
@@ -5109,7 +5114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5289,6 +5294,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6720,8 +6728,8 @@
   </sheetPr>
   <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7028,13 +7036,13 @@
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N14" s="9">
         <v>0.10625</v>
@@ -8083,7 +8091,7 @@
         <v>251</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>266</v>
@@ -8091,10 +8099,10 @@
     </row>
     <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -8728,18 +8736,18 @@
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D174" s="60" t="s">
-        <v>483</v>
+      <c r="D174" s="62" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -8862,7 +8870,7 @@
         <v>378</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>374</v>
@@ -8954,7 +8962,7 @@
     </row>
     <row r="199" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B199" s="54" t="s">
         <v>401</v>
@@ -8984,62 +8992,62 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="38" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B202" s="54"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B203" s="54"/>
       <c r="C203" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B204" s="54"/>
       <c r="C204" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B205" s="54"/>
       <c r="C205" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B206" s="54"/>
       <c r="C206" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B207" s="54"/>
       <c r="C207" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B208" s="54"/>
       <c r="C208" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
@@ -9070,23 +9078,23 @@
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -9114,7 +9122,7 @@
     </row>
     <row r="220" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B220" s="37"/>
       <c r="C220" s="56"/>
@@ -9132,20 +9140,20 @@
         <v>126</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" s="38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
@@ -9153,7 +9161,7 @@
         <v>460</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="225" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -9161,10 +9169,10 @@
         <v>461</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -9403,11 +9411,11 @@
     </row>
     <row r="264" spans="1:22" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B264" s="37"/>
       <c r="C264" s="61" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E264" s="34"/>
       <c r="G264" s="37"/>
@@ -9423,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="58" x14ac:dyDescent="0.35">
@@ -9431,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="58" x14ac:dyDescent="0.35">
@@ -9439,7 +9447,7 @@
         <v>3</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="58" x14ac:dyDescent="0.35">
@@ -9447,15 +9455,15 @@
         <v>4</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2E0292-AE95-443E-8BEA-6614B8DD24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F2C26-9A97-4850-97AF-57159D6A9E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="531">
   <si>
     <t>Урок 1</t>
   </si>
@@ -3121,9 +3121,6 @@
     <t>удалить файлы, которые еще ни разу не комитились</t>
   </si>
   <si>
-    <t>файлы</t>
-  </si>
-  <si>
     <t>файл</t>
   </si>
   <si>
@@ -4271,11 +4268,6 @@
     </r>
   </si>
   <si>
-    <t>git revert &lt;хэш коммита&gt; = 
-git revert &lt;хэш коммита&gt; -n; git commit -m "Revert "Commit message" = 
-git revert &lt;хэш коммита&gt; --no-edit</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4640,17 +4632,99 @@
 После использования данной команды, git status сообщит, что данный файл имеет статус deleted: &lt;имя файла&gt;. Однако этот файл никуда не был удален, просто его перестает отслеживать git. </t>
     </r>
   </si>
+  <si>
+    <t>git revert &lt;хэш коммита&gt;
+git revert &lt;хэш коммита&gt; -n; git commit -m "Revert "Commit message"
+git revert &lt;хэш коммита&gt; --no-edit</t>
+  </si>
+  <si>
+    <r>
+      <t>файлы (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>как reset, только для неотслеживаемых файлов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>git clean -f -d</t>
+  </si>
+  <si>
+    <r>
+      <t>файлы и каталоги (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>как reset, только для неотслеживаемых файлов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>удалить файлы и каталоги, которые еще ни разу не комитились</t>
+  </si>
+  <si>
+    <t>Небезопасно, так как каталоги могут содержать нужные файлы</t>
+  </si>
+  <si>
+    <t>После git reset может потребоваться произвести такое уже удаление коммитов на удаленном репозитории. Для этого используем команду git push -f</t>
+  </si>
+  <si>
+    <t>git push -f (origin/&lt;ветка удаленного репо&gt;)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5112,9 +5186,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5131,10 +5205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5146,22 +5220,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5191,14 +5265,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5210,7 +5284,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5226,10 +5300,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5265,37 +5339,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6285,13 +6362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>343647</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>622432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2917952</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>2057948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6329,13 +6406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>91490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2687132</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>1159588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6373,13 +6450,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>138965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2756856</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>1249542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6726,10 +6803,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X269"/>
+  <dimension ref="A1:X271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7036,13 +7113,13 @@
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N14" s="9">
         <v>0.10625</v>
@@ -7858,7 +7935,7 @@
     </row>
     <row r="77" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>216</v>
@@ -7869,7 +7946,7 @@
     </row>
     <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>215</v>
@@ -8091,7 +8168,7 @@
         <v>251</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>266</v>
@@ -8099,10 +8176,10 @@
     </row>
     <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -8139,16 +8216,16 @@
     <row r="108" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A108" s="46"/>
       <c r="C108" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D108" s="47"/>
     </row>
     <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D109" s="47"/>
     </row>
@@ -8157,84 +8234,84 @@
         <v>167</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D110" s="47"/>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="D111" s="47"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D112" s="47"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="D113" s="47"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D114" s="47"/>
     </row>
     <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B115" s="49"/>
       <c r="C115" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D115" s="50"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="46"/>
       <c r="B116" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D116" s="47"/>
     </row>
     <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="D117" s="47"/>
     </row>
     <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="D118" s="47"/>
     </row>
@@ -8537,10 +8614,10 @@
     </row>
     <row r="155" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
@@ -8578,10 +8655,10 @@
     </row>
     <row r="159" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>317</v>
@@ -8672,7 +8749,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -8680,13 +8757,13 @@
         <v>344</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -8694,24 +8771,24 @@
         <v>345</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -8719,322 +8796,327 @@
         <v>346</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" s="28" t="s">
         <v>348</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A174" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D174" s="63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D174" s="62" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
+      <c r="B175" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D175" s="62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D176" s="53"/>
+    </row>
+    <row r="177" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D175" s="53"/>
-    </row>
-    <row r="176" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
+      <c r="D177" s="53"/>
+    </row>
+    <row r="178" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D176" s="53"/>
-    </row>
-    <row r="177" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D177" s="53"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="38" t="s">
+      <c r="D178" s="53"/>
+    </row>
+    <row r="179" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D179" s="53"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C181" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C179" s="5" t="s">
+    </row>
+    <row r="182" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D182" s="53" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="C184" s="5" t="s">
-        <v>364</v>
+        <v>371</v>
+      </c>
+      <c r="D184" s="53" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C186" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C188" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C186" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="5" t="s">
+    </row>
+    <row r="189" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D187" s="60" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A189" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B189" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>374</v>
+      <c r="D189" s="60" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D193" s="45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="55" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D194" s="47"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="49"/>
+      <c r="C195" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D195" s="50"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B196" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="44" t="s">
+      <c r="C196" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D196" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="C191" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="D191" s="45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="D192" s="47"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="48" t="s">
+      <c r="D197" s="47"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="49"/>
+      <c r="C198" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="B193" s="49"/>
-      <c r="C193" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="50"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="55" t="s">
-        <v>381</v>
-      </c>
-      <c r="B194" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="C194" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="D194" s="45" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="D195" s="47"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="48" t="s">
+      <c r="D198" s="50"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="B196" s="49"/>
-      <c r="C196" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="D196" s="50"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="38" t="s">
+    </row>
+    <row r="200" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B198" s="54" t="s">
+    <row r="201" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B201" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B199" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
+      <c r="C202" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C200" s="5" t="s">
+    </row>
+    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
+      <c r="B203" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="C203" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="B202" s="54"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B203" s="54"/>
-      <c r="C203" s="5" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="5" t="s">
-        <v>503</v>
+      <c r="A204" s="38" t="s">
+        <v>499</v>
       </c>
       <c r="B204" s="54"/>
-      <c r="C204" s="5" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B205" s="54"/>
       <c r="C205" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B206" s="54"/>
       <c r="C206" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B207" s="54"/>
       <c r="C207" s="5" t="s">
@@ -9043,289 +9125,289 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B208" s="54"/>
       <c r="C208" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="B209" s="54"/>
+      <c r="C209" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A210" s="38" t="s">
+      <c r="A210" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B210" s="54"/>
+      <c r="C210" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B211" s="54"/>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A212" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A211" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A212" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
-        <v>517</v>
+        <v>403</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>520</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="31"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="31"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="31"/>
-      <c r="I219" s="31"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="31"/>
-      <c r="L219" s="31"/>
-      <c r="M219" s="31"/>
-      <c r="N219" s="31"/>
-      <c r="O219" s="34"/>
-      <c r="P219" s="32"/>
-      <c r="Q219" s="32"/>
-      <c r="R219" s="32"/>
-      <c r="S219" s="32"/>
-      <c r="T219" s="35"/>
-      <c r="U219" s="32"/>
-    </row>
-    <row r="220" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="B220" s="37"/>
-      <c r="C220" s="56"/>
-      <c r="E220" s="34"/>
-      <c r="G220" s="37"/>
-      <c r="J220" s="34"/>
-      <c r="O220" s="34"/>
-      <c r="Q220" s="37"/>
-      <c r="R220" s="37"/>
-      <c r="T220" s="35"/>
-      <c r="V220" s="37"/>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A221" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A222" s="5" t="s">
-        <v>484</v>
-      </c>
+    </row>
+    <row r="221" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="31"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="31"/>
+      <c r="I221" s="31"/>
+      <c r="J221" s="34"/>
+      <c r="K221" s="31"/>
+      <c r="L221" s="31"/>
+      <c r="M221" s="31"/>
+      <c r="N221" s="31"/>
+      <c r="O221" s="34"/>
+      <c r="P221" s="32"/>
+      <c r="Q221" s="32"/>
+      <c r="R221" s="32"/>
+      <c r="S221" s="32"/>
+      <c r="T221" s="35"/>
+      <c r="U221" s="32"/>
+    </row>
+    <row r="222" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B222" s="37"/>
+      <c r="C222" s="56"/>
+      <c r="E222" s="34"/>
+      <c r="G222" s="37"/>
+      <c r="J222" s="34"/>
+      <c r="O222" s="34"/>
+      <c r="Q222" s="37"/>
+      <c r="R222" s="37"/>
+      <c r="T222" s="35"/>
+      <c r="V222" s="37"/>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A225" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B226" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C226" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C223" s="5" t="s">
+    </row>
+    <row r="227" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B227" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B224" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C224" s="5" t="s">
+      <c r="D227" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B225" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="236" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="31"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="33"/>
-      <c r="D236" s="31"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="31"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="31"/>
-      <c r="I236" s="31"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="31"/>
-      <c r="L236" s="31"/>
-      <c r="M236" s="31"/>
-      <c r="N236" s="31"/>
-      <c r="O236" s="34"/>
-      <c r="P236" s="32"/>
-      <c r="Q236" s="32"/>
-      <c r="R236" s="32"/>
-      <c r="S236" s="32"/>
-      <c r="T236" s="35"/>
-      <c r="U236" s="32"/>
-    </row>
-    <row r="237" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="36" t="s">
+    <row r="238" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="31"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="31"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="31"/>
+      <c r="G238" s="32"/>
+      <c r="H238" s="31"/>
+      <c r="I238" s="31"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="31"/>
+      <c r="L238" s="31"/>
+      <c r="M238" s="31"/>
+      <c r="N238" s="31"/>
+      <c r="O238" s="34"/>
+      <c r="P238" s="32"/>
+      <c r="Q238" s="32"/>
+      <c r="R238" s="32"/>
+      <c r="S238" s="32"/>
+      <c r="T238" s="35"/>
+      <c r="U238" s="32"/>
+    </row>
+    <row r="239" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B239" s="37"/>
+      <c r="C239" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="B237" s="37"/>
-      <c r="C237" s="56" t="s">
+      <c r="E239" s="34"/>
+      <c r="G239" s="37"/>
+      <c r="J239" s="34"/>
+      <c r="O239" s="34"/>
+      <c r="Q239" s="37"/>
+      <c r="R239" s="37"/>
+      <c r="T239" s="35"/>
+      <c r="V239" s="37"/>
+    </row>
+    <row r="240" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E237" s="34"/>
-      <c r="G237" s="37"/>
-      <c r="J237" s="34"/>
-      <c r="O237" s="34"/>
-      <c r="Q237" s="37"/>
-      <c r="R237" s="37"/>
-      <c r="T237" s="35"/>
-      <c r="V237" s="37"/>
-    </row>
-    <row r="238" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="C238" s="5" t="s">
+    </row>
+    <row r="241" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A241" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C241" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="239" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A239" s="57" t="s">
+    </row>
+    <row r="242" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C242" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C239" s="57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="240" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C240" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="38" t="s">
+      <c r="B243" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C241" s="5" t="s">
+    </row>
+    <row r="244" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C244" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A242" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C242" s="57" t="s">
+    </row>
+    <row r="245" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D246" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="B247" s="44"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="45"/>
-    </row>
-    <row r="248" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A248" s="48"/>
-      <c r="B248" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="C248" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="D248" s="50"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="55" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B249" s="44"/>
       <c r="C249" s="44"/>
@@ -9333,137 +9415,155 @@
     </row>
     <row r="250" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A250" s="48"/>
-      <c r="B250" s="49"/>
-      <c r="C250" s="58" t="s">
-        <v>435</v>
+      <c r="B250" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="C250" s="49" t="s">
+        <v>432</v>
       </c>
       <c r="D250" s="50"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="55" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B251" s="44"/>
       <c r="C251" s="44"/>
       <c r="D251" s="45"/>
     </row>
-    <row r="252" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="46" t="s">
+    <row r="252" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A252" s="48"/>
+      <c r="B252" s="49"/>
+      <c r="C252" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="D252" s="50"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B253" s="44"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="45"/>
+    </row>
+    <row r="254" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A254" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="B254" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="B252" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D252" s="47"/>
-    </row>
-    <row r="253" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="48"/>
-      <c r="B253" s="49"/>
-      <c r="C253" s="49" t="s">
+      <c r="C254" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D254" s="47"/>
+    </row>
+    <row r="255" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A255" s="48"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="D255" s="50"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D253" s="50"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="38" t="s">
+      <c r="B256" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B254" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D254" s="3" t="s">
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B257" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B255" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="31"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="31"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="31"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="31"/>
-      <c r="I263" s="31"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="31"/>
-      <c r="L263" s="31"/>
-      <c r="M263" s="31"/>
-      <c r="N263" s="31"/>
-      <c r="O263" s="34"/>
-      <c r="P263" s="32"/>
-      <c r="Q263" s="32"/>
-      <c r="R263" s="32"/>
-      <c r="S263" s="32"/>
-      <c r="T263" s="35"/>
-      <c r="U263" s="32"/>
-    </row>
-    <row r="264" spans="1:22" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="36" t="s">
+    <row r="265" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="31"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="31"/>
+      <c r="E265" s="34"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="32"/>
+      <c r="H265" s="31"/>
+      <c r="I265" s="31"/>
+      <c r="J265" s="34"/>
+      <c r="K265" s="31"/>
+      <c r="L265" s="31"/>
+      <c r="M265" s="31"/>
+      <c r="N265" s="31"/>
+      <c r="O265" s="34"/>
+      <c r="P265" s="32"/>
+      <c r="Q265" s="32"/>
+      <c r="R265" s="32"/>
+      <c r="S265" s="32"/>
+      <c r="T265" s="35"/>
+      <c r="U265" s="32"/>
+    </row>
+    <row r="266" spans="1:22" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A266" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B266" s="37"/>
+      <c r="C266" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="E266" s="34"/>
+      <c r="G266" s="37"/>
+      <c r="J266" s="34"/>
+      <c r="O266" s="34"/>
+      <c r="Q266" s="37"/>
+      <c r="R266" s="37"/>
+      <c r="T266" s="35"/>
+      <c r="V266" s="37"/>
+    </row>
+    <row r="267" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="5">
+        <v>1</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B264" s="37"/>
-      <c r="C264" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="E264" s="34"/>
-      <c r="G264" s="37"/>
-      <c r="J264" s="34"/>
-      <c r="O264" s="34"/>
-      <c r="Q264" s="37"/>
-      <c r="R264" s="37"/>
-      <c r="T264" s="35"/>
-      <c r="V264" s="37"/>
-    </row>
-    <row r="265" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="5">
-        <v>1</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A266" s="5">
-        <v>2</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A267" s="5">
-        <v>3</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
+        <v>2</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A269" s="5">
+        <v>3</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A270" s="5">
         <v>4</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C270" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A271" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A269" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F2C26-9A97-4850-97AF-57159D6A9E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6334A-61D3-4C6B-9E02-BEEEB13A907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="533">
   <si>
     <t>Урок 1</t>
   </si>
@@ -4701,10 +4701,16 @@
     <t>Небезопасно, так как каталоги могут содержать нужные файлы</t>
   </si>
   <si>
-    <t>После git reset может потребоваться произвести такое уже удаление коммитов на удаленном репозитории. Для этого используем команду git push -f</t>
-  </si>
-  <si>
     <t>git push -f (origin/&lt;ветка удаленного репо&gt;)</t>
+  </si>
+  <si>
+    <t>git push origin --delete &lt;название ветки&gt;</t>
+  </si>
+  <si>
+    <t>Удалить ветку на удаленном репозитории</t>
+  </si>
+  <si>
+    <t>После git reset может потребоваться произвести такое уж удаление коммитов на удаленном репозитории. Для этого используем команду git push -f</t>
   </si>
 </sst>
 </file>
@@ -6805,8 +6811,8 @@
   </sheetPr>
   <dimension ref="A1:X271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7133,6 +7139,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K16" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
@@ -8870,10 +8884,10 @@
     </row>
     <row r="179" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D179" s="53"/>
     </row>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6334A-61D3-4C6B-9E02-BEEEB13A907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D7009-D163-4D99-A055-B879C563C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="534">
   <si>
     <t>Урок 1</t>
   </si>
@@ -4701,9 +4701,6 @@
     <t>Небезопасно, так как каталоги могут содержать нужные файлы</t>
   </si>
   <si>
-    <t>git push -f (origin/&lt;ветка удаленного репо&gt;)</t>
-  </si>
-  <si>
     <t>git push origin --delete &lt;название ветки&gt;</t>
   </si>
   <si>
@@ -4711,6 +4708,13 @@
   </si>
   <si>
     <t>После git reset может потребоваться произвести такое уж удаление коммитов на удаленном репозитории. Для этого используем команду git push -f</t>
+  </si>
+  <si>
+    <t>Удаление коммитов в удаленном репо</t>
+  </si>
+  <si>
+    <t>git push -f origin/&lt;ветка удаленного репо&gt; - вариант 1
+git push -f origin &lt;ветка удаленного репо&gt; - вариант 2</t>
   </si>
 </sst>
 </file>
@@ -6812,7 +6816,7 @@
   <dimension ref="A1:X271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7141,10 +7145,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K16" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -8884,10 +8888,13 @@
     </row>
     <row r="179" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D179" s="53"/>
     </row>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D7009-D163-4D99-A055-B879C563C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63321783-4311-4C0E-840A-FDC8062E08F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="0" windowWidth="22356" windowHeight="16212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -277,12 +277,6 @@
 git log stats</t>
   </si>
   <si>
-    <t>git branch</t>
-  </si>
-  <si>
-    <t>Вывести список веток</t>
-  </si>
-  <si>
     <t>0:19:00</t>
   </si>
   <si>
@@ -4715,6 +4709,14 @@
   <si>
     <t>git push -f origin/&lt;ветка удаленного репо&gt; - вариант 1
 git push -f origin &lt;ветка удаленного репо&gt; - вариант 2</t>
+  </si>
+  <si>
+    <t>git branch
+git branch -m новое_название</t>
+  </si>
+  <si>
+    <t>Вывести список веток
+Переименуйте ветку локально</t>
   </si>
 </sst>
 </file>
@@ -5387,8 +5389,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5457,8 +5459,8 @@
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3873758</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2350</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>406400</xdr:rowOff>
     </xdr:to>
@@ -5942,7 +5944,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3440545</xdr:colOff>
+      <xdr:colOff>3425305</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>308118</xdr:rowOff>
     </xdr:to>
@@ -6162,9 +6164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3900713</xdr:colOff>
+      <xdr:colOff>3862613</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>1655232</xdr:rowOff>
+      <xdr:rowOff>1647612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6422,8 +6424,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2687132</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>1159588</xdr:rowOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>4934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6815,39 +6817,39 @@
   </sheetPr>
   <dimension ref="A1:X271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="55.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="50" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.08984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="48.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2"/>
+    <col min="6" max="6" width="48.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="42" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.453125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="2"/>
-    <col min="11" max="11" width="39.1796875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="40.26953125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="58.6328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="49.7265625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="26.1796875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="39.7265625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="46.54296875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="42.7265625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="35.08984375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="45.7265625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="71.81640625" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="45.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="2"/>
+    <col min="11" max="11" width="39.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.21875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="49.77734375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2"/>
+    <col min="16" max="16" width="26.21875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="39.77734375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="46.5546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="42.77734375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="35.109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="45.77734375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="71.77734375" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
@@ -6868,7 +6870,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
@@ -6890,7 +6892,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -6912,7 +6914,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -6921,12 +6923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -6935,12 +6937,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -6967,22 +6969,22 @@
         <v>5.0694444444444452E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="20"/>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>21</v>
@@ -6994,19 +6996,19 @@
         <v>28</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N7" s="9">
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="25"/>
       <c r="I8" s="9"/>
@@ -7014,7 +7016,7 @@
       <c r="L8" s="12"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -7028,53 +7030,53 @@
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:24" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -7092,7 +7094,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -7115,7 +7117,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="174" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -7123,19 +7125,19 @@
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N14" s="9">
         <v>0.10625</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
@@ -7143,15 +7145,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K16" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7"/>
@@ -7173,7 +7175,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -7195,7 +7197,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
@@ -7204,12 +7206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>34</v>
@@ -7218,178 +7220,178 @@
         <v>4</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N20" s="9">
         <v>2.6041666666666668E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="N21" s="9">
         <v>3.0902777777777779E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N22" s="9">
         <v>5.347222222222222E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="N23" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="203" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="N26" s="9">
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -7411,9 +7413,9 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -7433,7 +7435,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
@@ -7442,297 +7444,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N32" s="9">
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N33" s="9">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="N35" s="9">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="N36" s="9">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="L37" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N37" s="9">
         <v>7.5694444444444439E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="K39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="K40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="N41" s="9">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="K42" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="5" t="s">
+    <row r="51" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="5" t="s">
+    <row r="52" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -7754,9 +7756,9 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -7776,204 +7778,204 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="5"/>
       <c r="K56" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
+      <c r="B60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="5" t="s">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="C66" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="27" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
+      <c r="B71" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="29" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="29" t="s">
+      <c r="B74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="B75" s="5" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C76" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="5" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31"/>
       <c r="B81" s="32"/>
       <c r="C81" s="33"/>
@@ -7996,13 +7998,13 @@
       <c r="T81" s="35"/>
       <c r="U81" s="32"/>
     </row>
-    <row r="82" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E82" s="34"/>
       <c r="G82" s="37"/>
@@ -8013,571 +8015,571 @@
       <c r="T82" s="35"/>
       <c r="V82" s="37"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C83" s="44"/>
       <c r="D83" s="45"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="46"/>
       <c r="C84" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D84" s="47"/>
     </row>
-    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="46"/>
       <c r="B85" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="47"/>
+    </row>
+    <row r="86" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="47"/>
+    </row>
+    <row r="87" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="47"/>
+    </row>
+    <row r="88" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" s="47"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="47"/>
-    </row>
-    <row r="86" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" s="47"/>
-    </row>
-    <row r="87" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="47"/>
-    </row>
-    <row r="88" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A88" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="47"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="46" t="s">
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="47"/>
-    </row>
-    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>233</v>
-      </c>
       <c r="D90" s="50"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C91" s="44"/>
       <c r="D91" s="45"/>
     </row>
-    <row r="92" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="47"/>
+    </row>
+    <row r="93" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" s="47"/>
+    </row>
+    <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D92" s="47"/>
-    </row>
-    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="46" t="s">
+      <c r="B94" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D93" s="47"/>
-    </row>
-    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B94" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>241</v>
-      </c>
       <c r="D94" s="50"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="45"/>
     </row>
-    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="46"/>
       <c r="C96" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="47"/>
+    </row>
+    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D96" s="47"/>
-    </row>
-    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B99" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C103" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C107" s="44"/>
       <c r="D107" s="45"/>
     </row>
-    <row r="108" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A108" s="46"/>
       <c r="C108" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D108" s="47"/>
+    </row>
+    <row r="109" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="D108" s="47"/>
-    </row>
-    <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="46" t="s">
+      <c r="C109" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D109" s="47"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" s="47"/>
+    </row>
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D109" s="47"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="47"/>
-    </row>
-    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="46" t="s">
+      <c r="D111" s="47"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="D112" s="47"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="B113" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D111" s="47"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B112" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="D112" s="47"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="B113" s="5" t="s">
+      <c r="D113" s="47"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D113" s="47"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="46" t="s">
+      <c r="C114" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D114" s="47"/>
+    </row>
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="48" t="s">
         <v>455</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="47"/>
-    </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="48" t="s">
-        <v>457</v>
       </c>
       <c r="B115" s="49"/>
       <c r="C115" s="49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D115" s="50"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="46"/>
       <c r="B116" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D116" s="47"/>
+    </row>
+    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="47"/>
+    </row>
+    <row r="118" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D116" s="47"/>
-    </row>
-    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D117" s="47"/>
-    </row>
-    <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="D118" s="47"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="44" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C119" s="44"/>
       <c r="D119" s="45"/>
     </row>
-    <row r="120" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D120" s="47"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D121" s="47"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" s="47"/>
+    </row>
+    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="48" t="s">
         <v>285</v>
-      </c>
-      <c r="D120" s="47"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D121" s="47"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D122" s="47"/>
-    </row>
-    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="48" t="s">
-        <v>287</v>
       </c>
       <c r="B123" s="49"/>
       <c r="C123" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D123" s="50"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C124" s="44"/>
       <c r="D124" s="45"/>
     </row>
-    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="46"/>
       <c r="C125" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D125" s="47"/>
     </row>
-    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="46"/>
       <c r="C126" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" s="47"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D127" s="47"/>
+    </row>
+    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="47"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="46" t="s">
+      <c r="C128" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" s="47"/>
+    </row>
+    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C129" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="47"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="48" t="s">
         <v>260</v>
-      </c>
-      <c r="D127" s="47"/>
-    </row>
-    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D128" s="47"/>
-    </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D129" s="47"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="48" t="s">
-        <v>262</v>
       </c>
       <c r="B130" s="49"/>
       <c r="C130" s="49"/>
       <c r="D130" s="50"/>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D133" s="20"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D136" s="22"/>
+    </row>
+    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D141" s="22"/>
+    </row>
+    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="22"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="22"/>
+    </row>
+    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D144" s="22"/>
+    </row>
+    <row r="145" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="22"/>
+    </row>
+    <row r="146" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="22"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D135" s="22"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D136" s="22"/>
-    </row>
-    <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" s="22"/>
-    </row>
-    <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D138" s="22"/>
-    </row>
-    <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="21" t="s">
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D139" s="22"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D140" s="22"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D141" s="22"/>
-    </row>
-    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D142" s="22"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D143" s="22"/>
-    </row>
-    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="D144" s="22"/>
-    </row>
-    <row r="145" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D145" s="22"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A146" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D146" s="22"/>
-    </row>
-    <row r="147" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D147" s="22"/>
-    </row>
-    <row r="148" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A148" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="D148" s="22"/>
     </row>
-    <row r="149" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B149" s="24"/>
       <c r="C149" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D149" s="25"/>
     </row>
-    <row r="151" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="31"/>
       <c r="B151" s="32"/>
       <c r="C151" s="33"/>
@@ -8600,13 +8602,13 @@
       <c r="T151" s="35"/>
       <c r="U151" s="32"/>
     </row>
-    <row r="152" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B152" s="37"/>
       <c r="C152" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E152" s="34"/>
       <c r="G152" s="37"/>
@@ -8617,608 +8619,608 @@
       <c r="T152" s="35"/>
       <c r="V152" s="37"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C156" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="C160" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B158" s="5" t="s">
+    <row r="161" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
+    </row>
+    <row r="165" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B166" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C167" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B159" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B161" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B166" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C167" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="38" t="s">
+      <c r="D171" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D174" s="63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D175" s="62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D176" s="53"/>
+    </row>
+    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D177" s="53"/>
+    </row>
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D178" s="53"/>
+    </row>
+    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D179" s="53"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C181" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D171" s="3" t="s">
+    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D184" s="53" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B172" s="5" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C186" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C188" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D189" s="60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A173" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D174" s="63" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D175" s="62" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D176" s="53"/>
-    </row>
-    <row r="177" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D177" s="53"/>
-    </row>
-    <row r="178" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D178" s="53"/>
-    </row>
-    <row r="179" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="D179" s="53"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C181" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C184" s="5" t="s">
+      <c r="D190" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D184" s="53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C186" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C188" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A189" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D189" s="60" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="5" t="s">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B191" s="54" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="38" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="55" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B193" s="44" t="s">
+      <c r="D194" s="47"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="48" t="s">
         <v>381</v>
-      </c>
-      <c r="C193" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="D193" s="45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="D194" s="47"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="48" t="s">
-        <v>383</v>
       </c>
       <c r="B195" s="49"/>
       <c r="C195" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D195" s="50"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B196" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="C196" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" s="45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B196" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="C196" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="D196" s="45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="46" t="s">
-        <v>382</v>
-      </c>
       <c r="D197" s="47"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B198" s="49"/>
       <c r="C198" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D198" s="50"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
+      <c r="B200" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B201" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B200" s="54" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B201" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="5" t="s">
+    </row>
+    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="B203" s="54" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="5" t="s">
+      <c r="C203" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B203" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B204" s="54"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B205" s="54"/>
       <c r="C205" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B206" s="54"/>
       <c r="C206" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B207" s="54"/>
       <c r="C207" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B208" s="54"/>
       <c r="C208" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B209" s="54"/>
       <c r="C209" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B210" s="54"/>
       <c r="C210" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B211" s="54"/>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D212" s="3" t="s">
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A213" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A214" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A215" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A217" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A218" s="5" t="s">
+      <c r="C218" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="221" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="31"/>
       <c r="B221" s="32"/>
       <c r="C221" s="33"/>
@@ -9241,9 +9243,9 @@
       <c r="T221" s="35"/>
       <c r="U221" s="32"/>
     </row>
-    <row r="222" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B222" s="37"/>
       <c r="C222" s="56"/>
@@ -9256,47 +9258,47 @@
       <c r="T222" s="35"/>
       <c r="V222" s="37"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D223" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A225" s="38" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A224" s="5" t="s">
+      <c r="C225" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A225" s="38" t="s">
+    <row r="226" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B226" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C226" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C225" s="5" t="s">
+    </row>
+    <row r="227" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B227" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B226" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C226" s="5" t="s">
+      <c r="D227" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B227" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="238" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="31"/>
       <c r="B238" s="32"/>
       <c r="C238" s="33"/>
@@ -9319,13 +9321,13 @@
       <c r="T238" s="35"/>
       <c r="U238" s="32"/>
     </row>
-    <row r="239" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B239" s="37"/>
       <c r="C239" s="56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E239" s="34"/>
       <c r="G239" s="37"/>
@@ -9336,178 +9338,178 @@
       <c r="T239" s="35"/>
       <c r="V239" s="37"/>
     </row>
-    <row r="240" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C241" s="57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A241" s="57" t="s">
+      <c r="C242" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C241" s="57" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C242" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="B243" s="5" t="s">
+    </row>
+    <row r="244" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C244" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="C243" s="5" t="s">
+    </row>
+    <row r="245" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D243" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="5" t="s">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="C244" s="57" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D246" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="38" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="38" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="55" t="s">
         <v>429</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="55" t="s">
-        <v>431</v>
       </c>
       <c r="B249" s="44"/>
       <c r="C249" s="44"/>
       <c r="D249" s="45"/>
     </row>
-    <row r="250" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A250" s="48"/>
       <c r="B250" s="58" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C250" s="49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D250" s="50"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B251" s="44"/>
       <c r="C251" s="44"/>
       <c r="D251" s="45"/>
     </row>
-    <row r="252" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A252" s="48"/>
       <c r="B252" s="49"/>
       <c r="C252" s="58" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D252" s="50"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="55" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B253" s="44"/>
       <c r="C253" s="44"/>
       <c r="D253" s="45"/>
     </row>
-    <row r="254" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B254" s="57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D254" s="47"/>
     </row>
-    <row r="255" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="48"/>
       <c r="B255" s="49"/>
       <c r="C255" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D255" s="50"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D255" s="50"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="38" t="s">
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B257" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B256" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B257" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="31"/>
       <c r="B265" s="32"/>
       <c r="C265" s="33"/>
@@ -9530,13 +9532,13 @@
       <c r="T265" s="35"/>
       <c r="U265" s="32"/>
     </row>
-    <row r="266" spans="1:22" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:22" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B266" s="37"/>
       <c r="C266" s="61" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E266" s="34"/>
       <c r="G266" s="37"/>
@@ -9547,44 +9549,44 @@
       <c r="T266" s="35"/>
       <c r="V266" s="37"/>
     </row>
-    <row r="267" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>1</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>2</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>3</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>4</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A271" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -9606,21 +9608,21 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63321783-4311-4C0E-840A-FDC8062E08F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B6EBC-C5CB-4F6D-86A9-4310953B7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="0" windowWidth="22356" windowHeight="16212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="542">
   <si>
     <t>Урок 1</t>
   </si>
@@ -4717,6 +4720,97 @@
   <si>
     <t>Вывести список веток
 Переименуйте ветку локально</t>
+  </si>
+  <si>
+    <t>git fetch --prune</t>
+  </si>
+  <si>
+    <r>
+      <t>Пример
+$ git branch -a
+  remotes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/origin/HEAD -&gt; origin/master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  remotes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/origin/Tauri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  remotes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/origin/auth_service</t>
+    </r>
+  </si>
+  <si>
+    <t>git branch | grep 'test_an' | xargs git branch -D</t>
+  </si>
+  <si>
+    <t>Удалить сразу несколько веток локального репозитория</t>
+  </si>
+  <si>
+    <t>git branch -r | grep 'origin/feature/' | sed 's/origin\///' | xargs -I {} git push origin --delete {}</t>
+  </si>
+  <si>
+    <t>Удалить сразу несколько веток удалённого репозитория</t>
+  </si>
+  <si>
+    <t>sed - это команда замены (substitution) в sed. 
+Синтаксис: s/что_заменить/на_что_заменить/
+sed 's/origin\///' заменить подстроку origin/ на пустую строку (то есть просто удалить origin/ из начала строки).
+Обратный слэш \ перед / нужен для **экранирования** символа /, потому что он сам используется как разделитель в команде s/.../.../.</t>
+  </si>
+  <si>
+    <t>Удалить локальные ветки удалённого репозитория
+git branch -r - показать локальные ветки удалённого репозитория
+git branch -a - ВСЕ ветки</t>
   </si>
 </sst>
 </file>
@@ -5543,13 +5637,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>768413</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2202690</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1415143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5587,13 +5681,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>750169</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2341426</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5631,13 +5725,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1102741</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>70098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1610591</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>785091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5675,13 +5769,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>263071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1989507</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>878744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5719,13 +5813,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>785091</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>92365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2676097</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>788311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5763,13 +5857,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>461798</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1801091</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>806097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5807,13 +5901,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>940660</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>70716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1492250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>876885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5851,13 +5945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>196273</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3221182</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>655226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5895,13 +5989,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100514</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>77423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3310150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>378584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5939,13 +6033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3425305</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>308118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5983,13 +6077,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1373911</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>374210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3394365</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>556875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6027,13 +6121,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>150092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3043646</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1154546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6071,13 +6165,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1890059</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3380442</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>657411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6115,13 +6209,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1882589</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3309471</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>845831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6159,13 +6253,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>697311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3862613</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1647612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6203,13 +6297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>118564</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>612054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1415150</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1015465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6247,13 +6341,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114195</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1030408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1563489</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1163090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6291,13 +6385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114193</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1173159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1542143</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1561687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6335,7 +6429,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>208110</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>91248</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3119727" cy="1051752"/>
@@ -6374,13 +6468,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>343647</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>622432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2917952</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>2057948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6418,13 +6512,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>91490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2687132</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>4934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6462,13 +6556,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>138965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2756856</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>1249542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6506,13 +6600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>500530</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>173012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2265472</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>470085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6815,10 +6909,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X271"/>
+  <dimension ref="A1:X275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6834,7 +6928,7 @@
     <col min="9" max="9" width="43.5546875" style="5" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" style="2"/>
     <col min="11" max="11" width="39.21875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="40.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="44" style="5" customWidth="1"/>
     <col min="13" max="13" width="58.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="49.77734375" style="5" customWidth="1"/>
     <col min="15" max="15" width="8.77734375" style="2"/>
@@ -7153,2446 +7247,2476 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+      <c r="K17" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K18" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="144" x14ac:dyDescent="0.3">
+      <c r="K19" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="K19" s="8" t="s">
+      <c r="D23" s="5"/>
+      <c r="K23" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="24" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N24" s="9">
         <v>2.6041666666666668E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="25" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N25" s="9">
         <v>3.0902777777777779E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="26" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N26" s="9">
         <v>5.347222222222222E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="27" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="28" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="5" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="30" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N30" s="9">
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F27" s="5" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="K31" s="8" t="s">
+      <c r="D35" s="5"/>
+      <c r="K35" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N36" s="9">
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="37" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N37" s="9">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="38" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M38" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="39" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N39" s="9">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="40" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N40" s="9">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="41" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N41" s="9">
         <v>7.5694444444444439E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="42" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="43" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M43" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="44" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N44" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+    <row r="45" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N45" s="9">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="46" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K46" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="48" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="49" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="5" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="5" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="52" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="53" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="54" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="55" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="56" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="6"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="K56" s="8" t="s">
+      <c r="D60" s="5"/>
+      <c r="K60" s="8" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>166</v>
+      <c r="A62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+    <row r="69" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C71" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="28" t="s">
+    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="78" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
+    <row r="79" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+    <row r="81" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+    <row r="82" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="32"/>
-    </row>
-    <row r="82" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="36" t="s">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="32"/>
+    </row>
+    <row r="86" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="52" t="s">
+      <c r="B86" s="37"/>
+      <c r="C86" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="E82" s="34"/>
-      <c r="G82" s="37"/>
-      <c r="J82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="T82" s="35"/>
-      <c r="V82" s="37"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44" t="s">
+      <c r="E86" s="34"/>
+      <c r="G86" s="37"/>
+      <c r="J86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="T86" s="35"/>
+      <c r="V86" s="37"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A84" s="46"/>
-      <c r="C84" s="5" t="s">
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88" s="46"/>
+      <c r="C88" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="47"/>
-    </row>
-    <row r="85" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="46"/>
-      <c r="B85" s="5" t="s">
+      <c r="D88" s="47"/>
+    </row>
+    <row r="89" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="46"/>
+      <c r="B89" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D85" s="47"/>
-    </row>
-    <row r="86" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="46" t="s">
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="47"/>
-    </row>
-    <row r="87" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="46" t="s">
+      <c r="D90" s="47"/>
+    </row>
+    <row r="91" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D87" s="47"/>
-    </row>
-    <row r="88" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="s">
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D88" s="47"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="46" t="s">
+      <c r="D92" s="47"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="D89" s="47"/>
-    </row>
-    <row r="90" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="50"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-    </row>
-    <row r="92" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="47"/>
-    </row>
-    <row r="93" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="D93" s="47"/>
     </row>
     <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D94" s="50"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="44" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="45"/>
     </row>
-    <row r="96" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
+    <row r="96" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="46" t="s">
+        <v>165</v>
+      </c>
       <c r="C96" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="47"/>
+    </row>
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" s="47"/>
+    </row>
+    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="50"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="45"/>
+    </row>
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="46"/>
+      <c r="C100" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="47"/>
-    </row>
-    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="46" t="s">
+      <c r="D100" s="47"/>
+    </row>
+    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D101" s="47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="5" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="38"/>
+      <c r="B102" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B99" s="40" t="s">
+    <row r="103" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B103" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+    <row r="105" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+    <row r="107" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C107" s="59" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="43"/>
-      <c r="B107" s="44" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="43"/>
+      <c r="B111" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="44"/>
-      <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="46"/>
-      <c r="C108" s="5" t="s">
+      <c r="C111" s="44"/>
+      <c r="D111" s="45"/>
+    </row>
+    <row r="112" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="46"/>
+      <c r="C112" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D108" s="47"/>
-    </row>
-    <row r="109" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="46" t="s">
+      <c r="D112" s="47"/>
+    </row>
+    <row r="113" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="D109" s="47"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D110" s="47"/>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D111" s="47"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="D112" s="47"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="D113" s="47"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="47"/>
+    </row>
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D115" s="47"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="D116" s="47"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="47"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D114" s="47"/>
-    </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="48" t="s">
+      <c r="D118" s="47"/>
+    </row>
+    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49" t="s">
+      <c r="B119" s="49"/>
+      <c r="C119" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="D115" s="50"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46" t="s">
+      <c r="D119" s="50"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="46"/>
+      <c r="B120" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="D116" s="47"/>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="46" t="s">
+      <c r="D120" s="47"/>
+    </row>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D117" s="47"/>
-    </row>
-    <row r="118" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="46" t="s">
+      <c r="D121" s="47"/>
+    </row>
+    <row r="122" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D118" s="47"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="43"/>
-      <c r="B119" s="44" t="s">
+      <c r="D122" s="47"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="43"/>
+      <c r="B123" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="45"/>
-    </row>
-    <row r="120" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A120" s="46"/>
-      <c r="B120" s="40" t="s">
+      <c r="C123" s="44"/>
+      <c r="D123" s="45"/>
+    </row>
+    <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A124" s="46"/>
+      <c r="B124" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="D120" s="47"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="46" t="s">
+      <c r="D124" s="47"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D121" s="47"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="46" t="s">
+      <c r="D125" s="47"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="D122" s="47"/>
-    </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="48" t="s">
+      <c r="D126" s="47"/>
+    </row>
+    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="49" t="s">
+      <c r="B127" s="49"/>
+      <c r="C127" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="D123" s="50"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="44" t="s">
+      <c r="D127" s="50"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="43"/>
+      <c r="B128" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="45"/>
-    </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="46"/>
-      <c r="C125" s="5" t="s">
+      <c r="C128" s="44"/>
+      <c r="D128" s="45"/>
+    </row>
+    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="46"/>
+      <c r="C129" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="47"/>
-    </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="46"/>
-      <c r="C126" s="5" t="s">
+      <c r="D129" s="47"/>
+    </row>
+    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="46"/>
+      <c r="C130" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D126" s="47"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="46" t="s">
+      <c r="D130" s="47"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D127" s="47"/>
-    </row>
-    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="46" t="s">
+      <c r="D131" s="47"/>
+    </row>
+    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D128" s="47"/>
-    </row>
-    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="46" t="s">
+      <c r="D132" s="47"/>
+    </row>
+    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D129" s="47"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="48" t="s">
+      <c r="D133" s="47"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B130" s="49"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="50"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="41" t="s">
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="51" t="s">
+      <c r="B137" s="19"/>
+      <c r="C137" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D133" s="20"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="21" t="s">
+      <c r="D137" s="20"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D134" s="22"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="21" t="s">
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D135" s="22"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D136" s="22"/>
-    </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D137" s="22"/>
-    </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D138" s="22"/>
-    </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="D139" s="22"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D140" s="22"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D141" s="22"/>
     </row>
     <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D142" s="22"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D143" s="22"/>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="42" t="s">
-        <v>273</v>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="D144" s="22"/>
     </row>
-    <row r="145" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
-        <v>291</v>
+        <v>321</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="D145" s="22"/>
     </row>
     <row r="146" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" s="22"/>
+    </row>
+    <row r="149" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D149" s="22"/>
+    </row>
+    <row r="150" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D146" s="22"/>
-    </row>
-    <row r="147" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
+      <c r="D150" s="22"/>
+    </row>
+    <row r="151" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D147" s="22"/>
-    </row>
-    <row r="148" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
+      <c r="D151" s="22"/>
+    </row>
+    <row r="152" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D148" s="22"/>
-    </row>
-    <row r="149" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="23" t="s">
+      <c r="D152" s="22"/>
+    </row>
+    <row r="153" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24" t="s">
+      <c r="B153" s="24"/>
+      <c r="C153" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D149" s="25"/>
-    </row>
-    <row r="151" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="31"/>
-      <c r="L151" s="31"/>
-      <c r="M151" s="31"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="34"/>
-      <c r="P151" s="32"/>
-      <c r="Q151" s="32"/>
-      <c r="R151" s="32"/>
-      <c r="S151" s="32"/>
-      <c r="T151" s="35"/>
-      <c r="U151" s="32"/>
-    </row>
-    <row r="152" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="36" t="s">
+      <c r="D153" s="25"/>
+    </row>
+    <row r="155" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="31"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="31"/>
+      <c r="L155" s="31"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="34"/>
+      <c r="P155" s="32"/>
+      <c r="Q155" s="32"/>
+      <c r="R155" s="32"/>
+      <c r="S155" s="32"/>
+      <c r="T155" s="35"/>
+      <c r="U155" s="32"/>
+    </row>
+    <row r="156" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="39" t="s">
+      <c r="B156" s="37"/>
+      <c r="C156" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E152" s="34"/>
-      <c r="G152" s="37"/>
-      <c r="J152" s="34"/>
-      <c r="O152" s="34"/>
-      <c r="Q152" s="37"/>
-      <c r="R152" s="37"/>
-      <c r="T152" s="35"/>
-      <c r="V152" s="37"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A153" s="38" t="s">
+      <c r="E156" s="34"/>
+      <c r="G156" s="37"/>
+      <c r="J156" s="34"/>
+      <c r="O156" s="34"/>
+      <c r="Q156" s="37"/>
+      <c r="R156" s="37"/>
+      <c r="T156" s="35"/>
+      <c r="V156" s="37"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A157" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+    <row r="158" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+    <row r="159" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+    <row r="160" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B161" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="38" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+    <row r="168" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B168" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D168" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="40" t="s">
+    <row r="169" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B169" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B166" s="40" t="s">
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B170" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C167" s="5" t="s">
+    <row r="171" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C171" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="38" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="38" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B173" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B174" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+    <row r="175" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B175" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C175" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+    <row r="176" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B176" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="28" t="s">
+    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B177" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="28" t="s">
+    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B178" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D174" s="63" t="s">
+      <c r="D178" s="63" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+    <row r="179" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B179" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D175" s="62" t="s">
+      <c r="D179" s="62" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
+    <row r="180" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D176" s="53"/>
-    </row>
-    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
+      <c r="D180" s="53"/>
+    </row>
+    <row r="181" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D177" s="53"/>
-    </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
+      <c r="D181" s="53"/>
+    </row>
+    <row r="182" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D178" s="53"/>
-    </row>
-    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+      <c r="D182" s="53"/>
+    </row>
+    <row r="183" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B183" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D179" s="53"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="38" t="s">
+      <c r="D183" s="53"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C181" s="5" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C185" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
+    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C186" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
+    <row r="188" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D184" s="53" t="s">
+      <c r="D188" s="53" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C189" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C186" s="5" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C190" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C191" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C188" s="5" t="s">
+    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C192" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+    <row r="193" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B193" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C193" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D189" s="60" t="s">
+      <c r="D193" s="60" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="38" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
+    <row r="195" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="54" t="s">
+      <c r="B195" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F195" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="38" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="55" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B193" s="44" t="s">
+      <c r="B197" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="C193" s="44" t="s">
+      <c r="C197" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="D193" s="45" t="s">
+      <c r="D197" s="45" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="46" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="D194" s="47"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="48" t="s">
+      <c r="D198" s="47"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="B195" s="49"/>
-      <c r="C195" s="49" t="s">
+      <c r="B199" s="49"/>
+      <c r="C199" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="D195" s="50"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="55" t="s">
+      <c r="D199" s="50"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B196" s="44" t="s">
+      <c r="B200" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="C196" s="44" t="s">
+      <c r="C200" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="D196" s="45" t="s">
+      <c r="D200" s="45" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="46" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="D197" s="47"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="48" t="s">
+      <c r="D201" s="47"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="B198" s="49"/>
-      <c r="C198" s="49" t="s">
+      <c r="B202" s="49"/>
+      <c r="C202" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="D198" s="50"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="38" t="s">
+      <c r="D202" s="50"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="38" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
+    <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B200" s="54" t="s">
+      <c r="B204" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C204" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
+    <row r="205" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="B205" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C205" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C206" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="54" t="s">
+      <c r="B207" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C207" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="38" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="B204" s="54"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
+      <c r="B208" s="54"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="B205" s="54"/>
-      <c r="C205" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B206" s="54"/>
-      <c r="C206" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B207" s="54"/>
-      <c r="C207" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B208" s="54"/>
-      <c r="C208" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="B209" s="54"/>
       <c r="C209" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B210" s="54"/>
       <c r="C210" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B211" s="54"/>
+      <c r="C211" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B212" s="54"/>
+      <c r="C212" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B213" s="54"/>
+      <c r="C213" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B214" s="54"/>
+      <c r="C214" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B211" s="54"/>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A212" s="38" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="54"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C221" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="221" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="31"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="33"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="31"/>
-      <c r="I221" s="31"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="31"/>
-      <c r="L221" s="31"/>
-      <c r="M221" s="31"/>
-      <c r="N221" s="31"/>
-      <c r="O221" s="34"/>
-      <c r="P221" s="32"/>
-      <c r="Q221" s="32"/>
-      <c r="R221" s="32"/>
-      <c r="S221" s="32"/>
-      <c r="T221" s="35"/>
-      <c r="U221" s="32"/>
-    </row>
-    <row r="222" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="36" t="s">
+    <row r="225" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="31"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="31"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+      <c r="J225" s="34"/>
+      <c r="K225" s="31"/>
+      <c r="L225" s="31"/>
+      <c r="M225" s="31"/>
+      <c r="N225" s="31"/>
+      <c r="O225" s="34"/>
+      <c r="P225" s="32"/>
+      <c r="Q225" s="32"/>
+      <c r="R225" s="32"/>
+      <c r="S225" s="32"/>
+      <c r="T225" s="35"/>
+      <c r="U225" s="32"/>
+    </row>
+    <row r="226" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="B222" s="37"/>
-      <c r="C222" s="56"/>
-      <c r="E222" s="34"/>
-      <c r="G222" s="37"/>
-      <c r="J222" s="34"/>
-      <c r="O222" s="34"/>
-      <c r="Q222" s="37"/>
-      <c r="R222" s="37"/>
-      <c r="T222" s="35"/>
-      <c r="V222" s="37"/>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A223" s="38" t="s">
+      <c r="B226" s="37"/>
+      <c r="C226" s="56"/>
+      <c r="E226" s="34"/>
+      <c r="G226" s="37"/>
+      <c r="J226" s="34"/>
+      <c r="O226" s="34"/>
+      <c r="Q226" s="37"/>
+      <c r="R226" s="37"/>
+      <c r="T226" s="35"/>
+      <c r="V226" s="37"/>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A227" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D227" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A225" s="38" t="s">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A229" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C229" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B226" s="5" t="s">
+    <row r="230" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B230" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C230" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B227" s="5" t="s">
+    <row r="231" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B231" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C231" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="238" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="31"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="33"/>
-      <c r="D238" s="31"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="31"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="31"/>
-      <c r="I238" s="31"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="31"/>
-      <c r="L238" s="31"/>
-      <c r="M238" s="31"/>
-      <c r="N238" s="31"/>
-      <c r="O238" s="34"/>
-      <c r="P238" s="32"/>
-      <c r="Q238" s="32"/>
-      <c r="R238" s="32"/>
-      <c r="S238" s="32"/>
-      <c r="T238" s="35"/>
-      <c r="U238" s="32"/>
-    </row>
-    <row r="239" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="36" t="s">
+    <row r="242" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="31"/>
+      <c r="B242" s="32"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="31"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="31"/>
+      <c r="G242" s="32"/>
+      <c r="H242" s="31"/>
+      <c r="I242" s="31"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="31"/>
+      <c r="L242" s="31"/>
+      <c r="M242" s="31"/>
+      <c r="N242" s="31"/>
+      <c r="O242" s="34"/>
+      <c r="P242" s="32"/>
+      <c r="Q242" s="32"/>
+      <c r="R242" s="32"/>
+      <c r="S242" s="32"/>
+      <c r="T242" s="35"/>
+      <c r="U242" s="32"/>
+    </row>
+    <row r="243" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="B239" s="37"/>
-      <c r="C239" s="56" t="s">
+      <c r="B243" s="37"/>
+      <c r="C243" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="E239" s="34"/>
-      <c r="G239" s="37"/>
-      <c r="J239" s="34"/>
-      <c r="O239" s="34"/>
-      <c r="Q239" s="37"/>
-      <c r="R239" s="37"/>
-      <c r="T239" s="35"/>
-      <c r="V239" s="37"/>
-    </row>
-    <row r="240" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="38" t="s">
+      <c r="E243" s="34"/>
+      <c r="G243" s="37"/>
+      <c r="J243" s="34"/>
+      <c r="O243" s="34"/>
+      <c r="Q243" s="37"/>
+      <c r="R243" s="37"/>
+      <c r="T243" s="35"/>
+      <c r="V243" s="37"/>
+    </row>
+    <row r="244" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C244" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="57" t="s">
+    <row r="245" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A245" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B245" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C241" s="57" t="s">
+      <c r="C245" s="57" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
+    <row r="246" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C242" s="57" t="s">
+      <c r="C246" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="38" t="s">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A247" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B247" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C247" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
+    <row r="248" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C244" s="57" t="s">
+      <c r="C248" s="57" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
+    <row r="249" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C249" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="38" t="s">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A250" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="38" t="s">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A251" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="38" t="s">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A252" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="55" t="s">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A253" s="55" t="s">
         <v>429</v>
-      </c>
-      <c r="B249" s="44"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="45"/>
-    </row>
-    <row r="250" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="48"/>
-      <c r="B250" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="C250" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="D250" s="50"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="B251" s="44"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="45"/>
-    </row>
-    <row r="252" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A252" s="48"/>
-      <c r="B252" s="49"/>
-      <c r="C252" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="D252" s="50"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="55" t="s">
-        <v>433</v>
       </c>
       <c r="B253" s="44"/>
       <c r="C253" s="44"/>
       <c r="D253" s="45"/>
     </row>
-    <row r="254" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A254" s="46" t="s">
+    <row r="254" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A254" s="48"/>
+      <c r="B254" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="C254" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D254" s="50"/>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A255" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="B255" s="44"/>
+      <c r="C255" s="44"/>
+      <c r="D255" s="45"/>
+    </row>
+    <row r="256" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A256" s="48"/>
+      <c r="B256" s="49"/>
+      <c r="C256" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="D256" s="50"/>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A257" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B257" s="44"/>
+      <c r="C257" s="44"/>
+      <c r="D257" s="45"/>
+    </row>
+    <row r="258" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="B254" s="57" t="s">
+      <c r="B258" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C258" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D254" s="47"/>
-    </row>
-    <row r="255" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="48"/>
-      <c r="B255" s="49"/>
-      <c r="C255" s="49" t="s">
+      <c r="D258" s="47"/>
+    </row>
+    <row r="259" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="48"/>
+      <c r="B259" s="49"/>
+      <c r="C259" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="D255" s="50"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="38" t="s">
+      <c r="D259" s="50"/>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A260" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B260" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B257" s="5" t="s">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B261" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="265" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="31"/>
-      <c r="B265" s="32"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="31"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="31"/>
-      <c r="G265" s="32"/>
-      <c r="H265" s="31"/>
-      <c r="I265" s="31"/>
-      <c r="J265" s="34"/>
-      <c r="K265" s="31"/>
-      <c r="L265" s="31"/>
-      <c r="M265" s="31"/>
-      <c r="N265" s="31"/>
-      <c r="O265" s="34"/>
-      <c r="P265" s="32"/>
-      <c r="Q265" s="32"/>
-      <c r="R265" s="32"/>
-      <c r="S265" s="32"/>
-      <c r="T265" s="35"/>
-      <c r="U265" s="32"/>
-    </row>
-    <row r="266" spans="1:22" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="36" t="s">
+    <row r="269" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="31"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="31"/>
+      <c r="E269" s="34"/>
+      <c r="F269" s="31"/>
+      <c r="G269" s="32"/>
+      <c r="H269" s="31"/>
+      <c r="I269" s="31"/>
+      <c r="J269" s="34"/>
+      <c r="K269" s="31"/>
+      <c r="L269" s="31"/>
+      <c r="M269" s="31"/>
+      <c r="N269" s="31"/>
+      <c r="O269" s="34"/>
+      <c r="P269" s="32"/>
+      <c r="Q269" s="32"/>
+      <c r="R269" s="32"/>
+      <c r="S269" s="32"/>
+      <c r="T269" s="35"/>
+      <c r="U269" s="32"/>
+    </row>
+    <row r="270" spans="1:22" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="61" t="s">
+      <c r="B270" s="37"/>
+      <c r="C270" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="E266" s="34"/>
-      <c r="G266" s="37"/>
-      <c r="J266" s="34"/>
-      <c r="O266" s="34"/>
-      <c r="Q266" s="37"/>
-      <c r="R266" s="37"/>
-      <c r="T266" s="35"/>
-      <c r="V266" s="37"/>
-    </row>
-    <row r="267" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A267" s="5">
+      <c r="E270" s="34"/>
+      <c r="G270" s="37"/>
+      <c r="J270" s="34"/>
+      <c r="O270" s="34"/>
+      <c r="Q270" s="37"/>
+      <c r="R270" s="37"/>
+      <c r="T270" s="35"/>
+      <c r="V270" s="37"/>
+    </row>
+    <row r="271" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
         <v>1</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C271" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="268" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A268" s="5">
+    <row r="272" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
         <v>2</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C272" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A269" s="5">
+    <row r="273" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="5">
         <v>3</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C273" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A270" s="5">
+    <row r="274" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="5">
         <v>4</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C274" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
+    <row r="275" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C275" s="5" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C56" r:id="rId1" xr:uid="{D4CAF2C4-819C-4857-B4FF-684C5EF88CE2}"/>
-    <hyperlink ref="C66" r:id="rId2" xr:uid="{03454A86-1125-479D-9521-9C049D264793}"/>
+    <hyperlink ref="C60" r:id="rId1" xr:uid="{D4CAF2C4-819C-4857-B4FF-684C5EF88CE2}"/>
+    <hyperlink ref="C70" r:id="rId2" xr:uid="{03454A86-1125-479D-9521-9C049D264793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId3"/>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B6EBC-C5CB-4F6D-86A9-4310953B7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1597E48-2475-41E9-BA9E-FF4A8D8CCD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="-17310" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="557">
   <si>
     <t>Урок 1</t>
   </si>
@@ -4812,12 +4812,151 @@
 git branch -r - показать локальные ветки удалённого репозитория
 git branch -a - ВСЕ ветки</t>
   </si>
+  <si>
+    <t>git checkout 1.0.0</t>
+  </si>
+  <si>
+    <t>git log --oneline 1.0.0</t>
+  </si>
+  <si>
+    <t>Просмотреть историю до тега</t>
+  </si>
+  <si>
+    <t>Проверить состояние на момент тега</t>
+  </si>
+  <si>
+    <t>git diff 1.0.0 1.1.0</t>
+  </si>
+  <si>
+    <t>Сравнить два тега между собой</t>
+  </si>
+  <si>
+    <t>Подключение по ssh</t>
+  </si>
+  <si>
+    <t>Шаг 1</t>
+  </si>
+  <si>
+    <t># Проверка существующих ключей
+ls -la ~/.ssh/
+# Проверка, что ssh-agent запущен
+eval "$(ssh-agent -s)"
+# Добавьте ключ в ssh-agent
+ssh-add ~/.ssh/id_rsa  # или ваш ключ</t>
+  </si>
+  <si>
+    <t>Подключение при каждой новой сессии работы с удаленным репозиторием github</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t ed25519 -C "your_email@example.com"</t>
+  </si>
+  <si>
+    <t>Ключ будет добавлен в папку ~/.ssh/</t>
+  </si>
+  <si>
+    <t>Нужно добавить ключ в github репозиторий</t>
+  </si>
+  <si>
+    <t>Шаг 2
+Шаг 3</t>
+  </si>
+  <si>
+    <r>
+      <t>cat ~/.ssh/id_ed25519.pub
+Создать файл в ~/.ssh/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">config </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>со следующим содержимым:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Host </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>github-greatnameuser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    HostName github.com
+    User git
+    IdentityFile ~/.ssh/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id_ed25519</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5059,6 +5198,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -5510,7 +5658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2775858</xdr:colOff>
+      <xdr:colOff>2764428</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2095437</xdr:rowOff>
     </xdr:to>
@@ -5556,7 +5704,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>406400</xdr:rowOff>
+      <xdr:rowOff>402590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5598,9 +5746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1949711</xdr:colOff>
+      <xdr:colOff>1963046</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>679559</xdr:rowOff>
+      <xdr:rowOff>666224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5642,9 +5790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2202690</xdr:colOff>
+      <xdr:colOff>2189355</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1415143</xdr:rowOff>
+      <xdr:rowOff>1426573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5686,7 +5834,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2341426</xdr:colOff>
+      <xdr:colOff>2345236</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
@@ -5730,9 +5878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1610591</xdr:colOff>
+      <xdr:colOff>1620116</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>785091</xdr:rowOff>
+      <xdr:rowOff>781281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5774,7 +5922,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1989507</xdr:colOff>
+      <xdr:colOff>1997127</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>878744</xdr:rowOff>
     </xdr:to>
@@ -5818,9 +5966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2676097</xdr:colOff>
+      <xdr:colOff>2683717</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>788311</xdr:rowOff>
+      <xdr:rowOff>784501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5862,9 +6010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1801091</xdr:colOff>
+      <xdr:colOff>1810616</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>806097</xdr:rowOff>
+      <xdr:rowOff>819432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5906,7 +6054,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:colOff>1505585</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>876885</xdr:rowOff>
     </xdr:to>
@@ -5950,9 +6098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3221182</xdr:colOff>
+      <xdr:colOff>3217372</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>655226</xdr:rowOff>
+      <xdr:rowOff>668561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5994,7 +6142,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3310150</xdr:colOff>
+      <xdr:colOff>3298720</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>378584</xdr:rowOff>
     </xdr:to>
@@ -6084,7 +6232,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>3394365</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>556875</xdr:rowOff>
+      <xdr:rowOff>553065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6126,9 +6274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3043646</xdr:colOff>
+      <xdr:colOff>3032216</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1154546</xdr:rowOff>
+      <xdr:rowOff>1158356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6170,9 +6318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3380442</xdr:colOff>
+      <xdr:colOff>3370917</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>657411</xdr:rowOff>
+      <xdr:rowOff>666936</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6214,9 +6362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3309471</xdr:colOff>
+      <xdr:colOff>3298041</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>845831</xdr:rowOff>
+      <xdr:rowOff>853451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6257,10 +6405,10 @@
       <xdr:rowOff>697311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3862613</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>1647612</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>2253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6302,9 +6450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1415150</xdr:colOff>
+      <xdr:colOff>1426580</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>1015465</xdr:rowOff>
+      <xdr:rowOff>1011655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6348,7 +6496,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1563489</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>1163090</xdr:rowOff>
+      <xdr:rowOff>1159280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6390,7 +6538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1542143</xdr:colOff>
+      <xdr:colOff>1545953</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>1561687</xdr:rowOff>
     </xdr:to>
@@ -6468,13 +6616,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>343647</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>622432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2917952</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:colOff>2914142</xdr:colOff>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>2057948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6512,14 +6660,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>91490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2687132</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>4934</xdr:rowOff>
+      <xdr:colOff>2683322</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>16364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6556,14 +6704,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>138965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2756856</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>1249542</xdr:rowOff>
+      <xdr:colOff>2760666</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>1241922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6605,9 +6753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2265472</xdr:colOff>
+      <xdr:colOff>2269282</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>470085</xdr:rowOff>
+      <xdr:rowOff>473895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6909,10 +7057,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X275"/>
+  <dimension ref="A1:X277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7163,7 +7311,9 @@
         <v>178</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="38" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -7178,6 +7328,15 @@
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>553</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>25</v>
       </c>
@@ -7188,7 +7347,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7201,6 +7360,15 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>554</v>
+      </c>
       <c r="K13" s="5" t="s">
         <v>26</v>
       </c>
@@ -7211,12 +7379,18 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>511</v>
@@ -7385,7 +7559,7 @@
         <v>3.0902777777777779E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -7721,7 +7895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>108</v>
       </c>
@@ -9298,281 +9472,287 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="B215" s="54"/>
+      <c r="C215" s="5" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>400</v>
+      <c r="A216" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B216" s="54"/>
+      <c r="C216" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>378</v>
+        <v>546</v>
+      </c>
+      <c r="B217" s="54"/>
+      <c r="C217" s="5" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
-        <v>401</v>
+      <c r="A218" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>513</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>516</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C224" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="31"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="31"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="31"/>
-      <c r="I225" s="31"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="31"/>
-      <c r="L225" s="31"/>
-      <c r="M225" s="31"/>
-      <c r="N225" s="31"/>
-      <c r="O225" s="34"/>
-      <c r="P225" s="32"/>
-      <c r="Q225" s="32"/>
-      <c r="R225" s="32"/>
-      <c r="S225" s="32"/>
-      <c r="T225" s="35"/>
-      <c r="U225" s="32"/>
-    </row>
-    <row r="226" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="36" t="s">
+    <row r="227" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="31"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+      <c r="J227" s="34"/>
+      <c r="K227" s="31"/>
+      <c r="L227" s="31"/>
+      <c r="M227" s="31"/>
+      <c r="N227" s="31"/>
+      <c r="O227" s="34"/>
+      <c r="P227" s="32"/>
+      <c r="Q227" s="32"/>
+      <c r="R227" s="32"/>
+      <c r="S227" s="32"/>
+      <c r="T227" s="35"/>
+      <c r="U227" s="32"/>
+    </row>
+    <row r="228" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="B226" s="37"/>
-      <c r="C226" s="56"/>
-      <c r="E226" s="34"/>
-      <c r="G226" s="37"/>
-      <c r="J226" s="34"/>
-      <c r="O226" s="34"/>
-      <c r="Q226" s="37"/>
-      <c r="R226" s="37"/>
-      <c r="T226" s="35"/>
-      <c r="V226" s="37"/>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A227" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
-        <v>480</v>
-      </c>
+      <c r="B228" s="37"/>
+      <c r="C228" s="56"/>
+      <c r="E228" s="34"/>
+      <c r="G228" s="37"/>
+      <c r="J228" s="34"/>
+      <c r="O228" s="34"/>
+      <c r="Q228" s="37"/>
+      <c r="R228" s="37"/>
+      <c r="T228" s="35"/>
+      <c r="V228" s="37"/>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A231" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C231" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B230" s="5" t="s">
+    <row r="232" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B232" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B231" s="5" t="s">
+    <row r="233" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B233" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C233" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="31"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="33"/>
-      <c r="D242" s="31"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="31"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="31"/>
-      <c r="I242" s="31"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="31"/>
-      <c r="L242" s="31"/>
-      <c r="M242" s="31"/>
-      <c r="N242" s="31"/>
-      <c r="O242" s="34"/>
-      <c r="P242" s="32"/>
-      <c r="Q242" s="32"/>
-      <c r="R242" s="32"/>
-      <c r="S242" s="32"/>
-      <c r="T242" s="35"/>
-      <c r="U242" s="32"/>
-    </row>
-    <row r="243" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="36" t="s">
+    <row r="244" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="31"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="31"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="31"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="31"/>
+      <c r="I244" s="31"/>
+      <c r="J244" s="34"/>
+      <c r="K244" s="31"/>
+      <c r="L244" s="31"/>
+      <c r="M244" s="31"/>
+      <c r="N244" s="31"/>
+      <c r="O244" s="34"/>
+      <c r="P244" s="32"/>
+      <c r="Q244" s="32"/>
+      <c r="R244" s="32"/>
+      <c r="S244" s="32"/>
+      <c r="T244" s="35"/>
+      <c r="U244" s="32"/>
+    </row>
+    <row r="245" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="B243" s="37"/>
-      <c r="C243" s="56" t="s">
+      <c r="B245" s="37"/>
+      <c r="C245" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="E243" s="34"/>
-      <c r="G243" s="37"/>
-      <c r="J243" s="34"/>
-      <c r="O243" s="34"/>
-      <c r="Q243" s="37"/>
-      <c r="R243" s="37"/>
-      <c r="T243" s="35"/>
-      <c r="V243" s="37"/>
-    </row>
-    <row r="244" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="38" t="s">
+      <c r="E245" s="34"/>
+      <c r="G245" s="37"/>
+      <c r="J245" s="34"/>
+      <c r="O245" s="34"/>
+      <c r="Q245" s="37"/>
+      <c r="R245" s="37"/>
+      <c r="T245" s="35"/>
+      <c r="V245" s="37"/>
+    </row>
+    <row r="246" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C246" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="57" t="s">
+    <row r="247" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B247" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C245" s="57" t="s">
+      <c r="C247" s="57" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
+    <row r="248" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C246" s="57" t="s">
+      <c r="C248" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A247" s="38" t="s">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A249" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B249" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C249" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
+    <row r="250" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C248" s="57" t="s">
+      <c r="C250" s="57" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
+    <row r="251" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C251" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A250" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A251" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A253" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A254" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A253" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="B253" s="44"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="45"/>
-    </row>
-    <row r="254" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="48"/>
-      <c r="B254" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="C254" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="D254" s="50"/>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="55" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B255" s="44"/>
       <c r="C255" s="44"/>
@@ -9580,136 +9760,154 @@
     </row>
     <row r="256" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A256" s="48"/>
-      <c r="B256" s="49"/>
-      <c r="C256" s="58" t="s">
-        <v>432</v>
+      <c r="B256" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="C256" s="49" t="s">
+        <v>430</v>
       </c>
       <c r="D256" s="50"/>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B257" s="44"/>
       <c r="C257" s="44"/>
       <c r="D257" s="45"/>
     </row>
-    <row r="258" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A258" s="46" t="s">
+    <row r="258" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A258" s="48"/>
+      <c r="B258" s="49"/>
+      <c r="C258" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="D258" s="50"/>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A259" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B259" s="44"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="45"/>
+    </row>
+    <row r="260" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="B258" s="57" t="s">
+      <c r="B260" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C260" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D258" s="47"/>
-    </row>
-    <row r="259" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="48"/>
-      <c r="B259" s="49"/>
-      <c r="C259" s="49" t="s">
+      <c r="D260" s="47"/>
+    </row>
+    <row r="261" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="48"/>
+      <c r="B261" s="49"/>
+      <c r="C261" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="D259" s="50"/>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A260" s="38" t="s">
+      <c r="D261" s="50"/>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A262" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B262" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B261" s="5" t="s">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B263" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="31"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="33"/>
-      <c r="D269" s="31"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="31"/>
-      <c r="G269" s="32"/>
-      <c r="H269" s="31"/>
-      <c r="I269" s="31"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="31"/>
-      <c r="L269" s="31"/>
-      <c r="M269" s="31"/>
-      <c r="N269" s="31"/>
-      <c r="O269" s="34"/>
-      <c r="P269" s="32"/>
-      <c r="Q269" s="32"/>
-      <c r="R269" s="32"/>
-      <c r="S269" s="32"/>
-      <c r="T269" s="35"/>
-      <c r="U269" s="32"/>
-    </row>
-    <row r="270" spans="1:22" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="36" t="s">
+    <row r="271" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="31"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="31"/>
+      <c r="E271" s="34"/>
+      <c r="F271" s="31"/>
+      <c r="G271" s="32"/>
+      <c r="H271" s="31"/>
+      <c r="I271" s="31"/>
+      <c r="J271" s="34"/>
+      <c r="K271" s="31"/>
+      <c r="L271" s="31"/>
+      <c r="M271" s="31"/>
+      <c r="N271" s="31"/>
+      <c r="O271" s="34"/>
+      <c r="P271" s="32"/>
+      <c r="Q271" s="32"/>
+      <c r="R271" s="32"/>
+      <c r="S271" s="32"/>
+      <c r="T271" s="35"/>
+      <c r="U271" s="32"/>
+    </row>
+    <row r="272" spans="1:22" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="B270" s="37"/>
-      <c r="C270" s="61" t="s">
+      <c r="B272" s="37"/>
+      <c r="C272" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="E270" s="34"/>
-      <c r="G270" s="37"/>
-      <c r="J270" s="34"/>
-      <c r="O270" s="34"/>
-      <c r="Q270" s="37"/>
-      <c r="R270" s="37"/>
-      <c r="T270" s="35"/>
-      <c r="V270" s="37"/>
-    </row>
-    <row r="271" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A271" s="5">
+      <c r="E272" s="34"/>
+      <c r="G272" s="37"/>
+      <c r="J272" s="34"/>
+      <c r="O272" s="34"/>
+      <c r="Q272" s="37"/>
+      <c r="R272" s="37"/>
+      <c r="T272" s="35"/>
+      <c r="V272" s="37"/>
+    </row>
+    <row r="273" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="5">
         <v>1</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C273" s="5" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="5">
-        <v>2</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="5">
-        <v>3</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
+        <v>2</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="5">
+        <v>3</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="5">
         <v>4</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C276" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
+    <row r="277" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C277" s="5" t="s">
         <v>496</v>
       </c>
     </row>

--- a/1 четверть_3_Введение в контроль версий.xlsx
+++ b/1 четверть_3_Введение в контроль версий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1597E48-2475-41E9-BA9E-FF4A8D8CCD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2376E424-7969-4726-806F-3CAD709B554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="-17310" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-3" sheetId="2" r:id="rId1"/>
@@ -7059,8 +7059,8 @@
   </sheetPr>
   <dimension ref="A1:X277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
